--- a/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.282227607656673</v>
+        <v>7.282227607656646</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.022680426190316</v>
+        <v>9.022680426190359</v>
       </c>
       <c r="E2">
-        <v>6.488131189323303</v>
+        <v>6.488131189323536</v>
       </c>
       <c r="F2">
-        <v>65.25251230885199</v>
+        <v>65.25251230885216</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>46.48157995642915</v>
+        <v>46.48157995642925</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.911603380902037</v>
+        <v>6.911603380901939</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.377435999324288</v>
+        <v>8.377435999324339</v>
       </c>
       <c r="E3">
-        <v>6.456476283546269</v>
+        <v>6.456476283546072</v>
       </c>
       <c r="F3">
-        <v>59.92550400233011</v>
+        <v>59.92550400232991</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>42.86279513196793</v>
+        <v>42.86279513196776</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>28.743891049765</v>
+        <v>28.7438910497649</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.679513057881802</v>
+        <v>6.679513057881821</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.99191378042992</v>
+        <v>7.99191378042993</v>
       </c>
       <c r="E4">
-        <v>6.443136807132047</v>
+        <v>6.443136807131983</v>
       </c>
       <c r="F4">
-        <v>56.63427099090752</v>
+        <v>56.63427099090769</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>40.58221068553493</v>
+        <v>40.58221068553505</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>27.2146033221475</v>
+        <v>27.21460332214757</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.583866153884207</v>
+        <v>6.583866153884182</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.836953565183266</v>
+        <v>7.836953565183218</v>
       </c>
       <c r="E5">
-        <v>6.438928549868119</v>
+        <v>6.438928549867986</v>
       </c>
       <c r="F5">
-        <v>55.32381967095444</v>
+        <v>55.32381967095418</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>39.6356035755479</v>
+        <v>39.63560357554774</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>26.58014709466205</v>
+        <v>26.58014709466195</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.567922187846456</v>
+        <v>6.567922187846421</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.811339656040831</v>
+        <v>7.811339656040779</v>
       </c>
       <c r="E6">
-        <v>6.438296465210448</v>
+        <v>6.438296465210377</v>
       </c>
       <c r="F6">
-        <v>55.11036471382569</v>
+        <v>55.11036471382541</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>39.47731475006384</v>
+        <v>39.47731475006375</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>26.47407394321905</v>
+        <v>26.47407394321897</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.678227340166569</v>
+        <v>6.678227340166536</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.989815833891322</v>
+        <v>7.989815833891292</v>
       </c>
       <c r="E7">
-        <v>6.443075428355822</v>
+        <v>6.443075428356016</v>
       </c>
       <c r="F7">
-        <v>56.61610226358547</v>
+        <v>56.61610226358537</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>40.56951719171148</v>
+        <v>40.56951719171153</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>27.20609435758222</v>
+        <v>27.2060943575822</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.15540726300175</v>
+        <v>7.155407263001807</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.797600979506178</v>
+        <v>8.797600979506182</v>
       </c>
       <c r="E8">
-        <v>6.475739196053413</v>
+        <v>6.475739196053452</v>
       </c>
       <c r="F8">
-        <v>63.41727587318209</v>
+        <v>63.41727587318204</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>45.24430046382403</v>
+        <v>45.24430046382398</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.054113297876521</v>
+        <v>8.054113297876496</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.65088469860856</v>
+        <v>10.65088469860861</v>
       </c>
       <c r="E9">
-        <v>6.608362950862995</v>
+        <v>6.608362950862904</v>
       </c>
       <c r="F9">
-        <v>76.85090726905445</v>
+        <v>76.85090726905455</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>54.10026380560308</v>
+        <v>54.10026380560314</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>36.29004799501505</v>
+        <v>36.29004799501516</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.790526672682713</v>
+        <v>8.79052667268264</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.2328824027889</v>
+        <v>12.23288240278887</v>
       </c>
       <c r="E10">
-        <v>6.794681309599333</v>
+        <v>6.794681309599349</v>
       </c>
       <c r="F10">
-        <v>87.36206656312284</v>
+        <v>87.36206656312262</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>60.74709573641574</v>
+        <v>60.7470957364156</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>40.75482742615577</v>
+        <v>40.75482742615566</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.137545512567218</v>
+        <v>9.137545512567243</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>13.02114524877492</v>
+        <v>13.02114524877486</v>
       </c>
       <c r="E11">
-        <v>6.920688735635627</v>
+        <v>6.920688735635698</v>
       </c>
       <c r="F11">
-        <v>92.53845637224941</v>
+        <v>92.53845637224987</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>63.94213368623062</v>
+        <v>63.94213368623068</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>42.89843331883675</v>
+        <v>42.89843331883681</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.268143111511192</v>
+        <v>9.268143111511158</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.33656578838075</v>
+        <v>13.33656578838069</v>
       </c>
       <c r="E12">
-        <v>6.978140395236901</v>
+        <v>6.978140395236706</v>
       </c>
       <c r="F12">
-        <v>94.59728244880348</v>
+        <v>94.59728244880297</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>65.19959702509802</v>
+        <v>65.19959702509767</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>43.74123024929848</v>
+        <v>43.74123024929838</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.240039376635679</v>
+        <v>9.240039376635714</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.26770893036134</v>
+        <v>13.26770893036131</v>
       </c>
       <c r="E13">
-        <v>6.965238396796594</v>
+        <v>6.965238396796564</v>
       </c>
       <c r="F13">
-        <v>94.14846686280598</v>
+        <v>94.14846686280552</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>64.92610361869498</v>
+        <v>64.92610361869501</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>43.55797530062501</v>
+        <v>43.55797530062498</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.148301502896278</v>
+        <v>9.148301502896297</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>13.04669621111095</v>
+        <v>13.04669621111091</v>
       </c>
       <c r="E14">
-        <v>6.925187187927108</v>
+        <v>6.925187187927162</v>
       </c>
       <c r="F14">
-        <v>92.70550646969598</v>
+        <v>92.70550646969615</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>64.04443879674378</v>
+        <v>64.04443879674379</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>42.96702299219214</v>
+        <v>42.96702299219213</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.092026859402596</v>
+        <v>9.092026859402534</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.91382133217531</v>
+        <v>12.91382133217524</v>
       </c>
       <c r="E15">
         <v>6.902086821713492</v>
       </c>
       <c r="F15">
-        <v>91.83626328814685</v>
+        <v>91.83626328814647</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>63.51155567317822</v>
+        <v>63.51155567317817</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>42.60971777724937</v>
+        <v>42.60971777724932</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.767696442710882</v>
+        <v>8.767696442710962</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.18324641233689</v>
+        <v>12.18324641233691</v>
       </c>
       <c r="E16">
-        <v>6.787540934775434</v>
+        <v>6.787540934775302</v>
       </c>
       <c r="F16">
-        <v>87.03468005301397</v>
+        <v>87.0346800530134</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>60.54336165015118</v>
+        <v>60.54336165015106</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>40.61805624541089</v>
+        <v>40.6180562454108</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.566586525944455</v>
+        <v>8.56658652594446</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.75633043990986</v>
+        <v>11.75633043990981</v>
       </c>
       <c r="E17">
-        <v>6.72977871163252</v>
+        <v>6.729778711632623</v>
       </c>
       <c r="F17">
-        <v>84.21213450850954</v>
+        <v>84.21213450850942</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>58.77839455540982</v>
+        <v>58.77839455540985</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.449966855614225</v>
+        <v>8.449966855614218</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.51665232268349</v>
+        <v>11.51665232268337</v>
       </c>
       <c r="E18">
-        <v>6.700118848266786</v>
+        <v>6.700118848266806</v>
       </c>
       <c r="F18">
         <v>82.62237313358676</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>57.77746494521934</v>
+        <v>57.77746494521933</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>38.76058954760676</v>
+        <v>38.76058954760673</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.410306553442371</v>
+        <v>8.410306553442428</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.43636384509757</v>
+        <v>11.43636384509763</v>
       </c>
       <c r="E19">
-        <v>6.69061231176484</v>
+        <v>6.69061231176476</v>
       </c>
       <c r="F19">
-        <v>82.08902553560419</v>
+        <v>82.08902553560449</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>57.44053562146048</v>
+        <v>57.44053562146056</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>38.5342564255885</v>
+        <v>38.53425642558859</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.588089916210883</v>
+        <v>8.588089916210864</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.80113185282607</v>
+        <v>11.80113185282593</v>
       </c>
       <c r="E20">
-        <v>6.735539560775261</v>
+        <v>6.735539560775337</v>
       </c>
       <c r="F20">
-        <v>84.50889420565498</v>
+        <v>84.50889420565407</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>58.96468571973088</v>
+        <v>58.96468571973068</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>39.55801137039978</v>
+        <v>39.5580113703996</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.175262738736736</v>
+        <v>9.175262738736675</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13.11107059987101</v>
+        <v>13.11107059987083</v>
       </c>
       <c r="E21">
-        <v>6.936641022297545</v>
+        <v>6.936641022297447</v>
       </c>
       <c r="F21">
-        <v>93.12616927788649</v>
+        <v>93.12616927788633</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>64.30184435556812</v>
+        <v>64.30184435556802</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>43.13958270913769</v>
+        <v>43.13958270913766</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.554916607311174</v>
+        <v>9.554916607311215</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>14.0743397922511</v>
+        <v>14.07433979225106</v>
       </c>
       <c r="E22">
-        <v>7.129663308212719</v>
+        <v>7.12966330821269</v>
       </c>
       <c r="F22">
-        <v>99.38333734590032</v>
+        <v>99.38333734589999</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>68.09484763326844</v>
+        <v>68.09484763326822</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>45.67914056068345</v>
+        <v>45.67914056068333</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.352352491272104</v>
+        <v>9.352352491272184</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.54632450269984</v>
+        <v>13.54632450269976</v>
       </c>
       <c r="E23">
-        <v>7.018715298750303</v>
+        <v>7.018715298750346</v>
       </c>
       <c r="F23">
-        <v>95.96230541021971</v>
+        <v>95.9623054102195</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>66.02927253737387</v>
+        <v>66.02927253737393</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>44.29696910822</v>
+        <v>44.29696910821998</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.578371381330149</v>
+        <v>8.578371381330088</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.78085963291004</v>
+        <v>11.78085963291007</v>
       </c>
       <c r="E24">
-        <v>6.732924264050466</v>
+        <v>6.732924264050487</v>
       </c>
       <c r="F24">
-        <v>84.37462913209953</v>
+        <v>84.3746291320999</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>58.88042202969979</v>
+        <v>58.88042202969994</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>39.50141955201169</v>
+        <v>39.5014195520118</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.8149404858674</v>
+        <v>7.814940485867425</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.10065416734649</v>
+        <v>10.10065416734653</v>
       </c>
       <c r="E25">
-        <v>6.561579035974765</v>
+        <v>6.561579035974805</v>
       </c>
       <c r="F25">
-        <v>73.1611089343883</v>
+        <v>73.16110893438849</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>51.71158785331308</v>
+        <v>51.71158785331313</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>34.6851137984513</v>
+        <v>34.68511379845135</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.282227607656646</v>
+        <v>7.282227607656673</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.022680426190359</v>
+        <v>9.022680426190316</v>
       </c>
       <c r="E2">
-        <v>6.488131189323536</v>
+        <v>6.488131189323303</v>
       </c>
       <c r="F2">
-        <v>65.25251230885216</v>
+        <v>65.25251230885199</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>46.48157995642925</v>
+        <v>46.48157995642915</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.911603380901939</v>
+        <v>6.911603380902037</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.377435999324339</v>
+        <v>8.377435999324288</v>
       </c>
       <c r="E3">
-        <v>6.456476283546072</v>
+        <v>6.456476283546269</v>
       </c>
       <c r="F3">
-        <v>59.92550400232991</v>
+        <v>59.92550400233011</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>42.86279513196776</v>
+        <v>42.86279513196793</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>28.7438910497649</v>
+        <v>28.743891049765</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.679513057881821</v>
+        <v>6.679513057881802</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.99191378042993</v>
+        <v>7.99191378042992</v>
       </c>
       <c r="E4">
-        <v>6.443136807131983</v>
+        <v>6.443136807132047</v>
       </c>
       <c r="F4">
-        <v>56.63427099090769</v>
+        <v>56.63427099090752</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>40.58221068553505</v>
+        <v>40.58221068553493</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>27.21460332214757</v>
+        <v>27.2146033221475</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.583866153884182</v>
+        <v>6.583866153884207</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.836953565183218</v>
+        <v>7.836953565183266</v>
       </c>
       <c r="E5">
-        <v>6.438928549867986</v>
+        <v>6.438928549868119</v>
       </c>
       <c r="F5">
-        <v>55.32381967095418</v>
+        <v>55.32381967095444</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>39.63560357554774</v>
+        <v>39.6356035755479</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>26.58014709466195</v>
+        <v>26.58014709466205</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.567922187846421</v>
+        <v>6.567922187846456</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.811339656040779</v>
+        <v>7.811339656040831</v>
       </c>
       <c r="E6">
-        <v>6.438296465210377</v>
+        <v>6.438296465210448</v>
       </c>
       <c r="F6">
-        <v>55.11036471382541</v>
+        <v>55.11036471382569</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>39.47731475006375</v>
+        <v>39.47731475006384</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>26.47407394321897</v>
+        <v>26.47407394321905</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.678227340166536</v>
+        <v>6.678227340166569</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.989815833891292</v>
+        <v>7.989815833891322</v>
       </c>
       <c r="E7">
-        <v>6.443075428356016</v>
+        <v>6.443075428355822</v>
       </c>
       <c r="F7">
-        <v>56.61610226358537</v>
+        <v>56.61610226358547</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>40.56951719171153</v>
+        <v>40.56951719171148</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>27.2060943575822</v>
+        <v>27.20609435758222</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.155407263001807</v>
+        <v>7.15540726300175</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.797600979506182</v>
+        <v>8.797600979506178</v>
       </c>
       <c r="E8">
-        <v>6.475739196053452</v>
+        <v>6.475739196053413</v>
       </c>
       <c r="F8">
-        <v>63.41727587318204</v>
+        <v>63.41727587318209</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>45.24430046382398</v>
+        <v>45.24430046382403</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.054113297876496</v>
+        <v>8.054113297876521</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.65088469860861</v>
+        <v>10.65088469860856</v>
       </c>
       <c r="E9">
-        <v>6.608362950862904</v>
+        <v>6.608362950862995</v>
       </c>
       <c r="F9">
-        <v>76.85090726905455</v>
+        <v>76.85090726905445</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>54.10026380560314</v>
+        <v>54.10026380560308</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>36.29004799501516</v>
+        <v>36.29004799501505</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.79052667268264</v>
+        <v>8.790526672682713</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.23288240278887</v>
+        <v>12.2328824027889</v>
       </c>
       <c r="E10">
-        <v>6.794681309599349</v>
+        <v>6.794681309599333</v>
       </c>
       <c r="F10">
-        <v>87.36206656312262</v>
+        <v>87.36206656312284</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>60.7470957364156</v>
+        <v>60.74709573641574</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>40.75482742615566</v>
+        <v>40.75482742615577</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.137545512567243</v>
+        <v>9.137545512567218</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>13.02114524877486</v>
+        <v>13.02114524877492</v>
       </c>
       <c r="E11">
-        <v>6.920688735635698</v>
+        <v>6.920688735635627</v>
       </c>
       <c r="F11">
-        <v>92.53845637224987</v>
+        <v>92.53845637224941</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>63.94213368623068</v>
+        <v>63.94213368623062</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>42.89843331883681</v>
+        <v>42.89843331883675</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.268143111511158</v>
+        <v>9.268143111511192</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.33656578838069</v>
+        <v>13.33656578838075</v>
       </c>
       <c r="E12">
-        <v>6.978140395236706</v>
+        <v>6.978140395236901</v>
       </c>
       <c r="F12">
-        <v>94.59728244880297</v>
+        <v>94.59728244880348</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>65.19959702509767</v>
+        <v>65.19959702509802</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>43.74123024929838</v>
+        <v>43.74123024929848</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.240039376635714</v>
+        <v>9.240039376635679</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.26770893036131</v>
+        <v>13.26770893036134</v>
       </c>
       <c r="E13">
-        <v>6.965238396796564</v>
+        <v>6.965238396796594</v>
       </c>
       <c r="F13">
-        <v>94.14846686280552</v>
+        <v>94.14846686280598</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>64.92610361869501</v>
+        <v>64.92610361869498</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>43.55797530062498</v>
+        <v>43.55797530062501</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.148301502896297</v>
+        <v>9.148301502896278</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>13.04669621111091</v>
+        <v>13.04669621111095</v>
       </c>
       <c r="E14">
-        <v>6.925187187927162</v>
+        <v>6.925187187927108</v>
       </c>
       <c r="F14">
-        <v>92.70550646969615</v>
+        <v>92.70550646969598</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>64.04443879674379</v>
+        <v>64.04443879674378</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>42.96702299219213</v>
+        <v>42.96702299219214</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.092026859402534</v>
+        <v>9.092026859402596</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.91382133217524</v>
+        <v>12.91382133217531</v>
       </c>
       <c r="E15">
         <v>6.902086821713492</v>
       </c>
       <c r="F15">
-        <v>91.83626328814647</v>
+        <v>91.83626328814685</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>63.51155567317817</v>
+        <v>63.51155567317822</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>42.60971777724932</v>
+        <v>42.60971777724937</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.767696442710962</v>
+        <v>8.767696442710882</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.18324641233691</v>
+        <v>12.18324641233689</v>
       </c>
       <c r="E16">
-        <v>6.787540934775302</v>
+        <v>6.787540934775434</v>
       </c>
       <c r="F16">
-        <v>87.0346800530134</v>
+        <v>87.03468005301397</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>60.54336165015106</v>
+        <v>60.54336165015118</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>40.6180562454108</v>
+        <v>40.61805624541089</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.56658652594446</v>
+        <v>8.566586525944455</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.75633043990981</v>
+        <v>11.75633043990986</v>
       </c>
       <c r="E17">
-        <v>6.729778711632623</v>
+        <v>6.72977871163252</v>
       </c>
       <c r="F17">
-        <v>84.21213450850942</v>
+        <v>84.21213450850954</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>58.77839455540985</v>
+        <v>58.77839455540982</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.449966855614218</v>
+        <v>8.449966855614225</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.51665232268337</v>
+        <v>11.51665232268349</v>
       </c>
       <c r="E18">
-        <v>6.700118848266806</v>
+        <v>6.700118848266786</v>
       </c>
       <c r="F18">
         <v>82.62237313358676</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>57.77746494521933</v>
+        <v>57.77746494521934</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>38.76058954760673</v>
+        <v>38.76058954760676</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.410306553442428</v>
+        <v>8.410306553442371</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.43636384509763</v>
+        <v>11.43636384509757</v>
       </c>
       <c r="E19">
-        <v>6.69061231176476</v>
+        <v>6.69061231176484</v>
       </c>
       <c r="F19">
-        <v>82.08902553560449</v>
+        <v>82.08902553560419</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>57.44053562146056</v>
+        <v>57.44053562146048</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>38.53425642558859</v>
+        <v>38.5342564255885</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.588089916210864</v>
+        <v>8.588089916210883</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.80113185282593</v>
+        <v>11.80113185282607</v>
       </c>
       <c r="E20">
-        <v>6.735539560775337</v>
+        <v>6.735539560775261</v>
       </c>
       <c r="F20">
-        <v>84.50889420565407</v>
+        <v>84.50889420565498</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>58.96468571973068</v>
+        <v>58.96468571973088</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>39.5580113703996</v>
+        <v>39.55801137039978</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.175262738736675</v>
+        <v>9.175262738736736</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13.11107059987083</v>
+        <v>13.11107059987101</v>
       </c>
       <c r="E21">
-        <v>6.936641022297447</v>
+        <v>6.936641022297545</v>
       </c>
       <c r="F21">
-        <v>93.12616927788633</v>
+        <v>93.12616927788649</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>64.30184435556802</v>
+        <v>64.30184435556812</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>43.13958270913766</v>
+        <v>43.13958270913769</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.554916607311215</v>
+        <v>9.554916607311174</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>14.07433979225106</v>
+        <v>14.0743397922511</v>
       </c>
       <c r="E22">
-        <v>7.12966330821269</v>
+        <v>7.129663308212719</v>
       </c>
       <c r="F22">
-        <v>99.38333734589999</v>
+        <v>99.38333734590032</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>68.09484763326822</v>
+        <v>68.09484763326844</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>45.67914056068333</v>
+        <v>45.67914056068345</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.352352491272184</v>
+        <v>9.352352491272104</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.54632450269976</v>
+        <v>13.54632450269984</v>
       </c>
       <c r="E23">
-        <v>7.018715298750346</v>
+        <v>7.018715298750303</v>
       </c>
       <c r="F23">
-        <v>95.9623054102195</v>
+        <v>95.96230541021971</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>66.02927253737393</v>
+        <v>66.02927253737387</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>44.29696910821998</v>
+        <v>44.29696910822</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.578371381330088</v>
+        <v>8.578371381330149</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.78085963291007</v>
+        <v>11.78085963291004</v>
       </c>
       <c r="E24">
-        <v>6.732924264050487</v>
+        <v>6.732924264050466</v>
       </c>
       <c r="F24">
-        <v>84.3746291320999</v>
+        <v>84.37462913209953</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>58.88042202969994</v>
+        <v>58.88042202969979</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>39.5014195520118</v>
+        <v>39.50141955201169</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.814940485867425</v>
+        <v>7.8149404858674</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.10065416734653</v>
+        <v>10.10065416734649</v>
       </c>
       <c r="E25">
-        <v>6.561579035974805</v>
+        <v>6.561579035974765</v>
       </c>
       <c r="F25">
-        <v>73.16110893438849</v>
+        <v>73.1611089343883</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>51.71158785331313</v>
+        <v>51.71158785331308</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>34.68511379845135</v>
+        <v>34.6851137984513</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.282227607656673</v>
+        <v>7.278898413203915</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.022680426190316</v>
+        <v>9.033790644832667</v>
       </c>
       <c r="E2">
-        <v>6.488131189323303</v>
+        <v>6.187071066337597</v>
       </c>
       <c r="F2">
-        <v>65.25251230885199</v>
+        <v>64.94297416185675</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.936546116279136</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,36 +439,39 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>46.48157995642915</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>46.08899899377843</v>
       </c>
       <c r="L2">
-        <v>31.17240859933877</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>30.95703986111618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.911603380902037</v>
+        <v>6.909004834547512</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.377435999324288</v>
+        <v>8.412012321886504</v>
       </c>
       <c r="E3">
-        <v>6.456476283546269</v>
+        <v>6.153695499431447</v>
       </c>
       <c r="F3">
-        <v>59.92550400233011</v>
+        <v>59.69606739743162</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.965181805951768</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,36 +480,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>42.86279513196793</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>42.492540727962</v>
       </c>
       <c r="L3">
-        <v>28.743891049765</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>28.54173740473708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.679513057881802</v>
+        <v>6.677367253581155</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.99191378042992</v>
+        <v>8.041828812916412</v>
       </c>
       <c r="E4">
-        <v>6.443136807132047</v>
+        <v>6.139140758918264</v>
       </c>
       <c r="F4">
-        <v>56.63427099090752</v>
+        <v>56.52261563855351</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.982494744311664</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,36 +521,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>40.58221068553493</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>40.22477863115046</v>
       </c>
       <c r="L4">
-        <v>27.2146033221475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>27.01994185274924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.583866153884207</v>
+        <v>6.581907098020008</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.836953565183266</v>
+        <v>7.893375844894633</v>
       </c>
       <c r="E5">
-        <v>6.438928549868119</v>
+        <v>6.134404814142177</v>
       </c>
       <c r="F5">
-        <v>55.32381967095444</v>
+        <v>55.26329929716752</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.98951742534016</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,36 +562,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>39.6356035755479</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>39.28324309726185</v>
       </c>
       <c r="L5">
-        <v>26.58014709466205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>26.38842504642309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.567922187846456</v>
+        <v>6.565994305236049</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.811339656040831</v>
+        <v>7.868858413642068</v>
       </c>
       <c r="E6">
-        <v>6.438296465210448</v>
+        <v>6.133683313510618</v>
       </c>
       <c r="F6">
-        <v>55.11036471382569</v>
+        <v>55.05390875637241</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.990682466089347</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,36 +603,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>39.47731475006384</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>39.12578872805651</v>
       </c>
       <c r="L6">
-        <v>26.47407394321905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>26.28283409568066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.678227340166569</v>
+        <v>6.67608404399596</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.989815833891322</v>
+        <v>8.039817564385464</v>
       </c>
       <c r="E7">
-        <v>6.443075428355822</v>
+        <v>6.139072387156356</v>
       </c>
       <c r="F7">
-        <v>56.61610226358547</v>
+        <v>56.50564943281555</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.982589544972931</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,36 +644,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>40.56951719171148</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>40.2121540813738</v>
       </c>
       <c r="L7">
-        <v>27.20609435758222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>27.01147294470411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.15540726300175</v>
+        <v>7.152330020198414</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.797600979506178</v>
+        <v>8.816626465469788</v>
       </c>
       <c r="E8">
-        <v>6.475739196053413</v>
+        <v>6.174124283154325</v>
       </c>
       <c r="F8">
-        <v>63.41727587318209</v>
+        <v>63.13501090606143</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.946499513450796</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,36 +685,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>45.24430046382403</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>44.85965147762826</v>
       </c>
       <c r="L8">
-        <v>30.34185629189331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>30.13120411737168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.054113297876521</v>
+        <v>8.049148104398219</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.65088469860856</v>
+        <v>10.54469649791004</v>
       </c>
       <c r="E9">
-        <v>6.608362950862995</v>
+        <v>6.309567298455011</v>
       </c>
       <c r="F9">
-        <v>76.85090726905445</v>
+        <v>76.36950579165392</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.871412728141502</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,36 +726,39 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>54.10026380560308</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>53.64999032667747</v>
       </c>
       <c r="L9">
-        <v>36.29004799501505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>36.03985127907681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.790526672682713</v>
+        <v>8.781113123111552</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.2328824027889</v>
+        <v>12.09704712608144</v>
       </c>
       <c r="E10">
-        <v>6.794681309599333</v>
+        <v>6.494973053689955</v>
       </c>
       <c r="F10">
-        <v>87.36206656312284</v>
+        <v>86.70924036825649</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.808959333787178</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,36 +767,39 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>60.74709573641574</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>60.22749493113416</v>
       </c>
       <c r="L10">
-        <v>40.75482742615577</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>40.46201650333347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.137545512567218</v>
+        <v>9.12714980707244</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>13.02114524877492</v>
+        <v>12.8684118539253</v>
       </c>
       <c r="E11">
-        <v>6.920688735635627</v>
+        <v>6.618731402260365</v>
       </c>
       <c r="F11">
-        <v>92.53845637224941</v>
+        <v>91.78723795826433</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.777000000643497</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,36 +808,39 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>63.94213368623062</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>63.37861511974138</v>
       </c>
       <c r="L11">
-        <v>42.89843331883675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>42.57838649942918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.268143111511192</v>
+        <v>9.257308953991251</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.33656578838075</v>
+        <v>13.17642679896357</v>
       </c>
       <c r="E12">
-        <v>6.978140395236901</v>
+        <v>6.674800959024033</v>
       </c>
       <c r="F12">
-        <v>94.59728244880348</v>
+        <v>93.80284887274131</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.76407215187474</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,36 +849,39 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>65.19959702509802</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>64.61604564758522</v>
       </c>
       <c r="L12">
-        <v>43.74123024929848</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>43.40872023141146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.240039376635679</v>
+        <v>9.22930350717299</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.26770893036134</v>
+        <v>13.10922410529254</v>
       </c>
       <c r="E13">
-        <v>6.965238396796594</v>
+        <v>6.662228030298101</v>
       </c>
       <c r="F13">
-        <v>94.14846686280598</v>
+        <v>93.36369000568277</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.766900717536604</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,36 +890,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>64.92610361869498</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>64.34706381663067</v>
       </c>
       <c r="L13">
-        <v>43.55797530062501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>43.22827389958903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.148301502896278</v>
+        <v>9.137871365709469</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>13.04669621111095</v>
+        <v>12.89337865548819</v>
       </c>
       <c r="E14">
-        <v>6.925187187927108</v>
+        <v>6.623129430428781</v>
       </c>
       <c r="F14">
-        <v>92.70550646969598</v>
+        <v>91.95088092590368</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.775955597255071</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,36 +931,39 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>64.04443879674378</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>63.47935590622155</v>
       </c>
       <c r="L14">
-        <v>42.96702299219214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>42.64600371618666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.092026859402596</v>
+        <v>9.081773819840789</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.91382133217531</v>
+        <v>12.76351354478759</v>
       </c>
       <c r="E15">
-        <v>6.902086821713492</v>
+        <v>6.600530496456574</v>
       </c>
       <c r="F15">
-        <v>91.83626328814685</v>
+        <v>91.09918875892048</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.781381303589094</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,36 +972,39 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>63.51155567317822</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>62.95450202649568</v>
       </c>
       <c r="L15">
-        <v>42.60971777724937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>42.29368834935517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.767696442710882</v>
+        <v>8.758340152646657</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.18324641233689</v>
+        <v>12.04841295585067</v>
       </c>
       <c r="E16">
-        <v>6.787540934775434</v>
+        <v>6.487925758059348</v>
       </c>
       <c r="F16">
-        <v>87.03468005301397</v>
+        <v>86.38767505348001</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.81095411719974</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>60.54336165015118</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>60.02627604894363</v>
       </c>
       <c r="L16">
-        <v>40.61805624541089</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>40.3268006892126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.566586525944455</v>
+        <v>8.55770397524989</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.75633043990986</v>
+        <v>11.62987536548638</v>
       </c>
       <c r="E17">
-        <v>6.72977871163252</v>
+        <v>6.430766033977221</v>
       </c>
       <c r="F17">
-        <v>84.21213450850954</v>
+        <v>83.61374665761497</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.828020098614168</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,36 +1054,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>58.77839455540982</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>58.28190790188297</v>
       </c>
       <c r="L17">
-        <v>39.43289624842409</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>39.15435636378749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.449966855614225</v>
+        <v>8.441336907290186</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.51665232268349</v>
+        <v>11.39473932295551</v>
       </c>
       <c r="E18">
-        <v>6.700118848266786</v>
+        <v>6.401303298496883</v>
       </c>
       <c r="F18">
-        <v>82.62237313358676</v>
+        <v>82.05028611799625</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.837527946657137</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,36 +1095,39 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>57.77746494521934</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>57.29180057743019</v>
       </c>
       <c r="L18">
-        <v>38.76058954760676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>38.48871233078361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.410306553442371</v>
+        <v>8.401759281582901</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.43636384509757</v>
+        <v>11.31595033989142</v>
       </c>
       <c r="E19">
-        <v>6.69061231176484</v>
+        <v>6.391842296106518</v>
       </c>
       <c r="F19">
-        <v>82.08902553560419</v>
+        <v>81.52561181750086</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.840700859339019</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,36 +1136,39 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>57.44053562146048</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>56.95838782573607</v>
       </c>
       <c r="L19">
-        <v>38.5342564255885</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>38.26454119158027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.588089916210883</v>
+        <v>8.579159137106364</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.80113185282607</v>
+        <v>11.67381589856059</v>
       </c>
       <c r="E20">
-        <v>6.735539560775261</v>
+        <v>6.436479358585083</v>
       </c>
       <c r="F20">
-        <v>84.50889420565498</v>
+        <v>83.90551679442702</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.8262369395149</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,36 +1177,39 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>58.96468571973088</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>58.4661197295409</v>
       </c>
       <c r="L20">
-        <v>39.55801137039978</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>39.27818985848706</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.175262738736736</v>
+        <v>9.164745032982472</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13.11107059987101</v>
+        <v>12.95626946977937</v>
       </c>
       <c r="E21">
-        <v>6.936641022297545</v>
+        <v>6.634321546697344</v>
       </c>
       <c r="F21">
-        <v>93.12616927788649</v>
+        <v>92.3628893465757</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.773322030218809</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,36 +1218,39 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>64.30184435556812</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>63.73277603174424</v>
       </c>
       <c r="L21">
-        <v>43.13958270913769</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>42.81608528547189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.554916607311174</v>
+        <v>9.542922621111586</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>14.0743397922511</v>
+        <v>13.89488578987345</v>
       </c>
       <c r="E22">
-        <v>7.129663308212719</v>
+        <v>6.821660999643361</v>
       </c>
       <c r="F22">
-        <v>99.38333734590032</v>
+        <v>98.47602601138654</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.733558689805142</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,36 +1259,39 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>68.09484763326844</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>67.45725194220839</v>
       </c>
       <c r="L22">
-        <v>45.67914056068345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>45.31292132792583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.352352491272104</v>
+        <v>9.341209315764438</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.54632450269984</v>
+        <v>13.38100476020437</v>
       </c>
       <c r="E23">
-        <v>7.018715298750303</v>
+        <v>6.714271219122034</v>
       </c>
       <c r="F23">
-        <v>95.96230541021971</v>
+        <v>95.13761506722476</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.755434291941378</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,36 +1300,39 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>66.02927253737387</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>65.43146266966639</v>
       </c>
       <c r="L23">
-        <v>44.29696910822</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>43.95557652654449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.578371381330149</v>
+        <v>8.569462465990926</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.78085963291004</v>
+        <v>11.65393370850235</v>
       </c>
       <c r="E24">
-        <v>6.732924264050466</v>
+        <v>6.433885997735302</v>
       </c>
       <c r="F24">
-        <v>84.37462913209953</v>
+        <v>83.77351246560713</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.827044031392968</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,36 +1341,39 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>58.88042202969979</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>58.38279919271473</v>
       </c>
       <c r="L24">
-        <v>39.50141955201169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>39.22217942283189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.8149404858674</v>
+        <v>7.810508580144796</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.10065416734649</v>
+        <v>10.00412454064995</v>
       </c>
       <c r="E25">
-        <v>6.561579035974765</v>
+        <v>6.262338342025952</v>
       </c>
       <c r="F25">
-        <v>73.1611089343883</v>
+        <v>72.73506968723818</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.892558430572105</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1382,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>51.71158785331308</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>51.28131194049986</v>
       </c>
       <c r="L25">
-        <v>34.6851137984513</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>34.44707616942809</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.278898413203915</v>
+        <v>7.288054484781559</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.033790644832667</v>
+        <v>5.97085138415261</v>
       </c>
       <c r="E2">
-        <v>6.187071066337597</v>
+        <v>44.92648278904797</v>
       </c>
       <c r="F2">
-        <v>64.94297416185675</v>
+        <v>44.84161612506159</v>
       </c>
       <c r="G2">
-        <v>1.936546116279136</v>
+        <v>1.85505432753735</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,36 +448,42 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>46.08899899377843</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.95703986111618</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>75.15280933750415</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>35.79737572163306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.909004834547512</v>
+        <v>6.914693988900527</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.412012321886504</v>
+        <v>5.148715187239436</v>
       </c>
       <c r="E3">
-        <v>6.153695499431447</v>
+        <v>41.18215665442372</v>
       </c>
       <c r="F3">
-        <v>59.69606739743162</v>
+        <v>39.82355757722245</v>
       </c>
       <c r="G3">
-        <v>1.965181805951768</v>
+        <v>1.890469574544559</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,36 +495,42 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>42.492540727962</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>28.54173740473708</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>68.9189752185506</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>31.68007203366218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.677367253581155</v>
+        <v>6.681597918122835</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.041828812916412</v>
+        <v>4.676065918925782</v>
       </c>
       <c r="E4">
-        <v>6.139140758918264</v>
+        <v>38.88263286389248</v>
       </c>
       <c r="F4">
-        <v>56.52261563855351</v>
+        <v>36.87641825793789</v>
       </c>
       <c r="G4">
-        <v>1.982494744311664</v>
+        <v>1.911072573582313</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,36 +542,42 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>40.22477863115046</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>27.01994185274924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>65.08318443051714</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>29.26366195209306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.581907098020008</v>
+        <v>6.585643969230327</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.893375844894633</v>
+        <v>4.488881667393495</v>
       </c>
       <c r="E5">
-        <v>6.134404814142177</v>
+        <v>37.93855977772705</v>
       </c>
       <c r="F5">
-        <v>55.26329929716752</v>
+        <v>35.69686985400402</v>
       </c>
       <c r="G5">
-        <v>1.98951742534016</v>
+        <v>1.919283389072221</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,36 +589,42 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>39.28324309726185</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>26.38842504642309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>63.50718265626042</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>28.29661738515804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.565994305236049</v>
+        <v>6.569653752140169</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.868858413642068</v>
+        <v>4.45806674078656</v>
       </c>
       <c r="E6">
-        <v>6.133683313510618</v>
+        <v>37.7812174557441</v>
       </c>
       <c r="F6">
-        <v>55.05390875637241</v>
+        <v>35.50202758502385</v>
       </c>
       <c r="G6">
-        <v>1.990682466089347</v>
+        <v>1.920637952479874</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,36 +636,42 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>39.12578872805651</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>26.28283409568066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>63.24446172367028</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>28.13687319701251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.67608404399596</v>
+        <v>6.680307712584</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.039817564385464</v>
+        <v>4.6735223666425</v>
       </c>
       <c r="E7">
-        <v>6.139072387156356</v>
+        <v>38.86993644884349</v>
       </c>
       <c r="F7">
-        <v>56.50564943281555</v>
+        <v>36.86043653217405</v>
       </c>
       <c r="G7">
-        <v>1.982589544972931</v>
+        <v>1.911183947335388</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,36 +683,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>40.2121540813738</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>27.01147294470411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>65.06199372582277</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>29.25055951881386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.152330020198414</v>
+        <v>7.160100452109647</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.816626465469788</v>
+        <v>5.678754236445784</v>
       </c>
       <c r="E8">
-        <v>6.174124283154325</v>
+        <v>43.63048981200875</v>
       </c>
       <c r="F8">
-        <v>63.13501090606143</v>
+        <v>43.07448169586684</v>
       </c>
       <c r="G8">
-        <v>1.946499513450796</v>
+        <v>1.867577322707868</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,36 +730,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>44.85965147762826</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>30.13120411737168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>72.99716270137608</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>34.34685283722246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.049148104398219</v>
+        <v>8.075312304102562</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.54469649791004</v>
+        <v>8.125679010151682</v>
       </c>
       <c r="E9">
-        <v>6.309567298455011</v>
+        <v>53.53580042158346</v>
       </c>
       <c r="F9">
-        <v>76.36950579165392</v>
+        <v>57.36183001066024</v>
       </c>
       <c r="G9">
-        <v>1.871412728141502</v>
+        <v>1.764607336476288</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,36 +777,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>53.64999032667747</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>36.03985127907681</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>89.38389424876847</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>46.10293268487158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.781113123111552</v>
+        <v>8.891956041101528</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.09704712608144</v>
+        <v>11.24505967273782</v>
       </c>
       <c r="E10">
-        <v>6.494973053689955</v>
+        <v>63.91737810321298</v>
       </c>
       <c r="F10">
-        <v>86.70924036825649</v>
+        <v>74.00142764468431</v>
       </c>
       <c r="G10">
-        <v>1.808959333787178</v>
+        <v>1.639621993213503</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,36 +824,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>60.22749493113416</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>40.46201650333347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>106.0914725004549</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>59.9079230267474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.12714980707244</v>
+        <v>8.891956041101528</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.8684118539253</v>
+        <v>11.24505967273782</v>
       </c>
       <c r="E11">
-        <v>6.618731402260365</v>
+        <v>63.91737810321298</v>
       </c>
       <c r="F11">
-        <v>91.78723795826433</v>
+        <v>74.00142764468431</v>
       </c>
       <c r="G11">
-        <v>1.777000000643497</v>
+        <v>1.639621993213503</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,36 +871,42 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>63.37861511974138</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>42.57838649942918</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>106.0914725004549</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>59.9079230267474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.257308953991251</v>
+        <v>8.891956041101528</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.17642679896357</v>
+        <v>11.24505967273782</v>
       </c>
       <c r="E12">
-        <v>6.674800959024033</v>
+        <v>63.91737810321298</v>
       </c>
       <c r="F12">
-        <v>93.80284887274131</v>
+        <v>74.00142764468431</v>
       </c>
       <c r="G12">
-        <v>1.76407215187474</v>
+        <v>1.639621993213503</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,36 +918,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>64.61604564758522</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>43.40872023141146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>106.0914725004549</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>59.9079230267474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.22930350717299</v>
+        <v>8.891956041101528</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.10922410529254</v>
+        <v>11.24505967273782</v>
       </c>
       <c r="E13">
-        <v>6.662228030298101</v>
+        <v>63.91737810321298</v>
       </c>
       <c r="F13">
-        <v>93.36369000568277</v>
+        <v>74.00142764468431</v>
       </c>
       <c r="G13">
-        <v>1.766900717536604</v>
+        <v>1.639621993213503</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,36 +965,42 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>64.34706381663067</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>43.22827389958903</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>106.0914725004549</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>59.9079230267474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.137871365709469</v>
+        <v>8.891956041101528</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.89337865548819</v>
+        <v>11.24505967273782</v>
       </c>
       <c r="E14">
-        <v>6.623129430428781</v>
+        <v>63.91737810321298</v>
       </c>
       <c r="F14">
-        <v>91.95088092590368</v>
+        <v>74.00142764468431</v>
       </c>
       <c r="G14">
-        <v>1.775955597255071</v>
+        <v>1.639621993213503</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,36 +1012,42 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>63.47935590622155</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>42.64600371618666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>106.0914725004549</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>59.9079230267474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.081773819840789</v>
+        <v>8.891956041101528</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.76351354478759</v>
+        <v>11.24505967273782</v>
       </c>
       <c r="E15">
-        <v>6.600530496456574</v>
+        <v>63.91737810321298</v>
       </c>
       <c r="F15">
-        <v>91.09918875892048</v>
+        <v>74.00142764468431</v>
       </c>
       <c r="G15">
-        <v>1.781381303589094</v>
+        <v>1.639621993213503</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,36 +1059,42 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>62.95450202649568</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>42.29368834935517</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>106.0914725004549</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>59.9079230267474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.758340152646657</v>
+        <v>8.891956041101528</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.04841295585067</v>
+        <v>11.24505967273782</v>
       </c>
       <c r="E16">
-        <v>6.487925758059348</v>
+        <v>63.91737810321298</v>
       </c>
       <c r="F16">
-        <v>86.38767505348001</v>
+        <v>74.00142764468431</v>
       </c>
       <c r="G16">
-        <v>1.81095411719974</v>
+        <v>1.639621993213503</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,36 +1106,42 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>60.02627604894363</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>40.3268006892126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>106.0914725004549</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>59.9079230267474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.55770397524989</v>
+        <v>8.891956041101528</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.62987536548638</v>
+        <v>11.24505967273782</v>
       </c>
       <c r="E17">
-        <v>6.430766033977221</v>
+        <v>63.91737810321298</v>
       </c>
       <c r="F17">
-        <v>83.61374665761497</v>
+        <v>74.00142764468431</v>
       </c>
       <c r="G17">
-        <v>1.828020098614168</v>
+        <v>1.639621993213503</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,36 +1153,42 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>58.28190790188297</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>39.15435636378749</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>106.0914725004549</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>59.9079230267474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.441336907290186</v>
+        <v>8.891956041101528</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.39473932295551</v>
+        <v>11.24505967273782</v>
       </c>
       <c r="E18">
-        <v>6.401303298496883</v>
+        <v>63.91737810321298</v>
       </c>
       <c r="F18">
-        <v>82.05028611799625</v>
+        <v>74.00142764468431</v>
       </c>
       <c r="G18">
-        <v>1.837527946657137</v>
+        <v>1.639621993213503</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,36 +1200,42 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>57.29180057743019</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>38.48871233078361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>106.0914725004549</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>59.9079230267474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.401759281582901</v>
+        <v>8.891956041101528</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.31595033989142</v>
+        <v>11.24505967273782</v>
       </c>
       <c r="E19">
-        <v>6.391842296106518</v>
+        <v>63.91737810321298</v>
       </c>
       <c r="F19">
-        <v>81.52561181750086</v>
+        <v>74.00142764468431</v>
       </c>
       <c r="G19">
-        <v>1.840700859339019</v>
+        <v>1.639621993213503</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,36 +1247,42 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>56.95838782573607</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>38.26454119158027</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>106.0914725004549</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>59.9079230267474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.579159137106364</v>
+        <v>8.891956041101528</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.67381589856059</v>
+        <v>11.24505967273782</v>
       </c>
       <c r="E20">
-        <v>6.436479358585083</v>
+        <v>63.91737810321298</v>
       </c>
       <c r="F20">
-        <v>83.90551679442702</v>
+        <v>74.00142764468431</v>
       </c>
       <c r="G20">
-        <v>1.8262369395149</v>
+        <v>1.639621993213503</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,36 +1294,42 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>58.4661197295409</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>39.27818985848706</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>106.0914725004549</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>59.9079230267474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.164745032982472</v>
+        <v>8.891956041101528</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.95626946977937</v>
+        <v>11.24505967273782</v>
       </c>
       <c r="E21">
-        <v>6.634321546697344</v>
+        <v>63.91737810321298</v>
       </c>
       <c r="F21">
-        <v>92.3628893465757</v>
+        <v>74.00142764468431</v>
       </c>
       <c r="G21">
-        <v>1.773322030218809</v>
+        <v>1.639621993213503</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,36 +1341,42 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>63.73277603174424</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>42.81608528547189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>106.0914725004549</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>59.9079230267474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.542922621111586</v>
+        <v>8.891956041101528</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.89488578987345</v>
+        <v>11.24505967273782</v>
       </c>
       <c r="E22">
-        <v>6.821660999643361</v>
+        <v>63.91737810321298</v>
       </c>
       <c r="F22">
-        <v>98.47602601138654</v>
+        <v>74.00142764468431</v>
       </c>
       <c r="G22">
-        <v>1.733558689805142</v>
+        <v>1.639621993213503</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,36 +1388,42 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>67.45725194220839</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>45.31292132792583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>106.0914725004549</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>59.9079230267474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.341209315764438</v>
+        <v>8.891956041101528</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.38100476020437</v>
+        <v>11.24505967273782</v>
       </c>
       <c r="E23">
-        <v>6.714271219122034</v>
+        <v>63.91737810321298</v>
       </c>
       <c r="F23">
-        <v>95.13761506722476</v>
+        <v>74.00142764468431</v>
       </c>
       <c r="G23">
-        <v>1.755434291941378</v>
+        <v>1.639621993213503</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,36 +1435,42 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>65.43146266966639</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>43.95557652654449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>106.0914725004549</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>59.9079230267474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.569462465990926</v>
+        <v>8.891956041101528</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.65393370850235</v>
+        <v>11.24505967273782</v>
       </c>
       <c r="E24">
-        <v>6.433885997735302</v>
+        <v>63.91737810321298</v>
       </c>
       <c r="F24">
-        <v>83.77351246560713</v>
+        <v>74.00142764468431</v>
       </c>
       <c r="G24">
-        <v>1.827044031392968</v>
+        <v>1.639621993213503</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,36 +1482,42 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>58.38279919271473</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>39.22217942283189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>106.0914725004549</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>59.9079230267474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.810508580144796</v>
+        <v>8.891956041101528</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.00412454064995</v>
+        <v>11.24505967273782</v>
       </c>
       <c r="E25">
-        <v>6.262338342025952</v>
+        <v>63.91737810321298</v>
       </c>
       <c r="F25">
-        <v>72.73506968723818</v>
+        <v>74.00142764468431</v>
       </c>
       <c r="G25">
-        <v>1.892558430572105</v>
+        <v>1.639621993213503</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,13 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>51.28131194049986</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>34.44707616942809</v>
+        <v>106.0914725004549</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>59.9079230267474</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.288054484781559</v>
+        <v>12.57014212326653</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.97085138415261</v>
+        <v>6.788660648383958</v>
       </c>
       <c r="E2">
-        <v>44.92648278904797</v>
+        <v>11.00687574003878</v>
       </c>
       <c r="F2">
-        <v>44.84161612506159</v>
+        <v>21.89186266990655</v>
       </c>
       <c r="G2">
-        <v>1.85505432753735</v>
+        <v>23.63391025344477</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.530499980327484</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.899573943228077</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.24331338865013</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.844765928896006</v>
       </c>
       <c r="M2">
-        <v>75.15280933750415</v>
+        <v>9.654042461707494</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>35.79737572163306</v>
+        <v>15.57663639524472</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.914693988900527</v>
+        <v>11.98859304437032</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.148715187239436</v>
+        <v>6.749936050435669</v>
       </c>
       <c r="E3">
-        <v>41.18215665442372</v>
+        <v>11.13286652448951</v>
       </c>
       <c r="F3">
-        <v>39.82355757722245</v>
+        <v>21.92974632937457</v>
       </c>
       <c r="G3">
-        <v>1.890469574544559</v>
+        <v>23.59214038965526</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.616126172403748</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.974632349482927</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.6653753469237</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.584677107420227</v>
       </c>
       <c r="M3">
-        <v>68.9189752185506</v>
+        <v>9.333575532853446</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>31.68007203366218</v>
+        <v>15.67451188102438</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.681597918122835</v>
+        <v>11.62090547460667</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.676065918925782</v>
+        <v>6.728810488409807</v>
       </c>
       <c r="E4">
-        <v>38.88263286389248</v>
+        <v>11.21367742656927</v>
       </c>
       <c r="F4">
-        <v>36.87641825793789</v>
+        <v>21.96943454753554</v>
       </c>
       <c r="G4">
-        <v>1.911072573582313</v>
+        <v>23.59023659086982</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.673518053566889</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.022194905939733</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.2961037507212</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.418367078710682</v>
       </c>
       <c r="M4">
-        <v>65.08318443051714</v>
+        <v>9.133595439691526</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>29.26366195209306</v>
+        <v>15.74561691593782</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.585643969230327</v>
+        <v>11.46860248359634</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.488881667393495</v>
+        <v>6.72086667008007</v>
       </c>
       <c r="E5">
-        <v>37.93855977772705</v>
+        <v>11.24747675655348</v>
       </c>
       <c r="F5">
-        <v>35.69686985400402</v>
+        <v>21.98960827068408</v>
       </c>
       <c r="G5">
-        <v>1.919283389072221</v>
+        <v>23.59522275626068</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.698086301654261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.041954040881407</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.14212315059143</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.348984897782586</v>
       </c>
       <c r="M5">
-        <v>63.50718265626042</v>
+        <v>9.051408726243675</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.29661738515804</v>
+        <v>15.77726485174582</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.569653752140169</v>
+        <v>11.4431701453552</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.45806674078656</v>
+        <v>6.719587700250806</v>
       </c>
       <c r="E6">
-        <v>37.7812174557441</v>
+        <v>11.25314155985622</v>
       </c>
       <c r="F6">
-        <v>35.50202758502385</v>
+        <v>21.99319589305796</v>
       </c>
       <c r="G6">
-        <v>1.920637952479874</v>
+        <v>23.5963924699712</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.702236281079541</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.04525796551826</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.11634749855346</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.337368579276767</v>
       </c>
       <c r="M6">
-        <v>63.24446172367028</v>
+        <v>9.037723349935838</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.13687319701251</v>
+        <v>15.78267859410506</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.680307712584</v>
+        <v>11.61886116500186</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.6735223666425</v>
+        <v>6.728700665673661</v>
       </c>
       <c r="E7">
-        <v>38.86993644884349</v>
+        <v>11.21412974021472</v>
       </c>
       <c r="F7">
-        <v>36.86043653217405</v>
+        <v>21.96969059251875</v>
       </c>
       <c r="G7">
-        <v>1.911183947335388</v>
+        <v>23.59028078710905</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.673844648648663</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.022459850556572</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.29404110294354</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.417437805489708</v>
       </c>
       <c r="M7">
-        <v>65.06199372582277</v>
+        <v>9.132489689364016</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>29.25055951881386</v>
+        <v>15.74603303705445</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.160100452109647</v>
+        <v>12.37193891956078</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.678754236445784</v>
+        <v>6.774757353690382</v>
       </c>
       <c r="E8">
-        <v>43.63048981200875</v>
+        <v>11.04960091858451</v>
       </c>
       <c r="F8">
-        <v>43.07448169586684</v>
+        <v>21.90143729902781</v>
       </c>
       <c r="G8">
-        <v>1.867577322707868</v>
+        <v>23.61445740962135</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.559005100883807</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.925151186358495</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.04710132151728</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.756489645321724</v>
       </c>
       <c r="M8">
-        <v>72.99716270137608</v>
+        <v>9.544277839652553</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>34.34685283722246</v>
+        <v>15.60804013220147</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.075312304102562</v>
+        <v>13.75709282891686</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.125679010151682</v>
+        <v>6.886145848346728</v>
       </c>
       <c r="E9">
-        <v>53.53580042158346</v>
+        <v>10.75435462635946</v>
       </c>
       <c r="F9">
-        <v>57.36183001066024</v>
+        <v>21.90370320239848</v>
       </c>
       <c r="G9">
-        <v>1.764607336476288</v>
+        <v>23.85907952200056</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9.373495259850699</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.745771765384851</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.4049474354266</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.366962010950945</v>
       </c>
       <c r="M9">
-        <v>89.38389424876847</v>
+        <v>10.32177956632814</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>46.10293268487158</v>
+        <v>15.4292408937068</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.891956041101528</v>
+        <v>14.71081865754051</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.24505967273782</v>
+        <v>6.980817153980452</v>
       </c>
       <c r="E10">
-        <v>63.91737810321298</v>
+        <v>10.55416553015352</v>
       </c>
       <c r="F10">
-        <v>74.00142764468431</v>
+        <v>21.99609421580275</v>
       </c>
       <c r="G10">
-        <v>1.639621993213503</v>
+        <v>24.17024514885054</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.263565821720231</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.620561603203302</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.32524283239765</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.780273331962011</v>
       </c>
       <c r="M10">
-        <v>106.0914725004549</v>
+        <v>10.86937130732101</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>59.9079230267474</v>
+        <v>15.36014527556579</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.891956041101528</v>
+        <v>15.12956100342852</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.24505967273782</v>
+        <v>7.026652531039165</v>
       </c>
       <c r="E11">
-        <v>63.91737810321298</v>
+        <v>10.46674343460332</v>
       </c>
       <c r="F11">
-        <v>74.00142764468431</v>
+        <v>22.05943126119742</v>
       </c>
       <c r="G11">
-        <v>1.639621993213503</v>
+        <v>24.3424698320839</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.219796986179452</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.564938319407821</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.7264040474404</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.960358580916084</v>
       </c>
       <c r="M11">
-        <v>106.0914725004549</v>
+        <v>11.11242423646122</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>59.9079230267474</v>
+        <v>15.34364086960264</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.891956041101528</v>
+        <v>15.28587641431396</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.24505967273782</v>
+        <v>7.044404383156615</v>
       </c>
       <c r="E12">
-        <v>63.91737810321298</v>
+        <v>10.43416567023699</v>
       </c>
       <c r="F12">
-        <v>74.00142764468431</v>
+        <v>22.08660618518012</v>
       </c>
       <c r="G12">
-        <v>1.639621993213503</v>
+        <v>24.41225127941555</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9.204166318148436</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.544059584794087</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.87575534013521</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.027393835439121</v>
       </c>
       <c r="M12">
-        <v>106.0914725004549</v>
+        <v>11.20352758418015</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>59.9079230267474</v>
+        <v>15.33965675922932</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.891956041101528</v>
+        <v>15.25231240291181</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.24505967273782</v>
+        <v>7.040563693859868</v>
       </c>
       <c r="E13">
-        <v>63.91737810321298</v>
+        <v>10.44115837744823</v>
       </c>
       <c r="F13">
-        <v>74.00142764468431</v>
+        <v>22.0806097062642</v>
       </c>
       <c r="G13">
-        <v>1.639621993213503</v>
+        <v>24.39701735221467</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9.207489921452909</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.548548106050997</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.84370431845171</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.013008390107236</v>
       </c>
       <c r="M13">
-        <v>106.0914725004549</v>
+        <v>11.18394940444081</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>59.9079230267474</v>
+        <v>15.34041211931511</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.891956041101528</v>
+        <v>15.14246672308858</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.24505967273782</v>
+        <v>7.028105090755055</v>
       </c>
       <c r="E14">
-        <v>63.91737810321298</v>
+        <v>10.46405265918309</v>
       </c>
       <c r="F14">
-        <v>74.00142764468431</v>
+        <v>22.06160230450702</v>
       </c>
       <c r="G14">
-        <v>1.639621993213503</v>
+        <v>24.34811850889287</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.218491852843856</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.563216957603684</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.73874279015844</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.965896931135869</v>
       </c>
       <c r="M14">
-        <v>106.0914725004549</v>
+        <v>11.11993845662361</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>59.9079230267474</v>
+        <v>15.34326699543489</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.891956041101528</v>
+        <v>15.07488754842167</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.24505967273782</v>
+        <v>7.020525171253546</v>
       </c>
       <c r="E15">
-        <v>63.91737810321298</v>
+        <v>10.47814481018482</v>
       </c>
       <c r="F15">
-        <v>74.00142764468431</v>
+        <v>22.05037891415302</v>
       </c>
       <c r="G15">
-        <v>1.639621993213503</v>
+        <v>24.3187651610546</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.225355174079478</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.572225865937984</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.67411631038921</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.936888383350665</v>
       </c>
       <c r="M15">
-        <v>106.0914725004549</v>
+        <v>11.08060627762648</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>59.9079230267474</v>
+        <v>15.34531432976991</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.891956041101528</v>
+        <v>14.68314152194073</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.24505967273782</v>
+        <v>6.977877164633804</v>
       </c>
       <c r="E16">
-        <v>63.91737810321298</v>
+        <v>10.55995235047066</v>
       </c>
       <c r="F16">
-        <v>74.00142764468431</v>
+        <v>21.99239466397409</v>
       </c>
       <c r="G16">
-        <v>1.639621993213503</v>
+        <v>24.15962050713867</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.266555666986157</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.624222959931299</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.2986700165304</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.768343031178446</v>
       </c>
       <c r="M16">
-        <v>106.0914725004549</v>
+        <v>10.85335967910618</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>59.9079230267474</v>
+        <v>15.36153439775507</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.891956041101528</v>
+        <v>14.43888487245277</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.24505967273782</v>
+        <v>6.95242112214538</v>
       </c>
       <c r="E17">
-        <v>63.91737810321298</v>
+        <v>10.61107405107049</v>
       </c>
       <c r="F17">
-        <v>74.00142764468431</v>
+        <v>21.96237190575013</v>
       </c>
       <c r="G17">
-        <v>1.639621993213503</v>
+        <v>24.06996025967704</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.293460894348955</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.656458345073676</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.06383152305218</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.662899590345711</v>
       </c>
       <c r="M17">
-        <v>106.0914725004549</v>
+        <v>10.71235225334623</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>59.9079230267474</v>
+        <v>15.37539230377047</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.891956041101528</v>
+        <v>14.29697608344095</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.24505967273782</v>
+        <v>6.938040338415997</v>
       </c>
       <c r="E18">
-        <v>63.91737810321298</v>
+        <v>10.64082076026081</v>
       </c>
       <c r="F18">
-        <v>74.00142764468431</v>
+        <v>21.94710187669377</v>
       </c>
       <c r="G18">
-        <v>1.639621993213503</v>
+        <v>24.02126903694185</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>9.309520318957135</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.675125449597096</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.92711474109706</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.601505476398635</v>
       </c>
       <c r="M18">
-        <v>106.0914725004549</v>
+        <v>10.63068244836308</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>59.9079230267474</v>
+        <v>15.38476078126931</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.891956041101528</v>
+        <v>14.24868724569138</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.24505967273782</v>
+        <v>6.933216141385786</v>
       </c>
       <c r="E19">
-        <v>63.91737810321298</v>
+        <v>10.65095129319083</v>
       </c>
       <c r="F19">
-        <v>74.00142764468431</v>
+        <v>21.94227099329608</v>
       </c>
       <c r="G19">
-        <v>1.639621993213503</v>
+        <v>24.00527258879706</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>9.315056738757947</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.681467700367365</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.88054401238632</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.580591029633953</v>
       </c>
       <c r="M19">
-        <v>106.0914725004549</v>
+        <v>10.60293538436093</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>59.9079230267474</v>
+        <v>15.38816925958938</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.891956041101528</v>
+        <v>14.4650338872631</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.24505967273782</v>
+        <v>6.955103984518518</v>
       </c>
       <c r="E20">
-        <v>63.91737810321298</v>
+        <v>10.60559655512408</v>
       </c>
       <c r="F20">
-        <v>74.00142764468431</v>
+        <v>21.96536013770529</v>
       </c>
       <c r="G20">
-        <v>1.639621993213503</v>
+        <v>24.07920562742675</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.29053599149508</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.653013828665454</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.08900098155535</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.674201565007371</v>
       </c>
       <c r="M20">
-        <v>106.0914725004549</v>
+        <v>10.72742182444054</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>59.9079230267474</v>
+        <v>15.37377158481696</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.891956041101528</v>
+        <v>15.17479276840861</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.24505967273782</v>
+        <v>7.031753792891483</v>
       </c>
       <c r="E21">
-        <v>63.91737810321298</v>
+        <v>10.45731372150347</v>
       </c>
       <c r="F21">
-        <v>74.00142764468431</v>
+        <v>22.067097659822</v>
       </c>
       <c r="G21">
-        <v>1.639621993213503</v>
+        <v>24.36235628418014</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.215234323465529</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.558903411440585</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.76964231323484</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.979766290575196</v>
       </c>
       <c r="M21">
-        <v>106.0914725004549</v>
+        <v>11.13876589148616</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>59.9079230267474</v>
+        <v>15.34236599725949</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.891956041101528</v>
+        <v>15.62550207724314</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.24505967273782</v>
+        <v>7.084149303612135</v>
       </c>
       <c r="E22">
-        <v>63.91737810321298</v>
+        <v>10.36347649654275</v>
       </c>
       <c r="F22">
-        <v>74.00142764468431</v>
+        <v>22.15224182980692</v>
       </c>
       <c r="G22">
-        <v>1.639621993213503</v>
+        <v>24.57407252136255</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>9.171544276224722</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.498469077256011</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.199547017311</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.172708934122353</v>
       </c>
       <c r="M22">
-        <v>106.0914725004549</v>
+        <v>11.40212595081584</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>59.9079230267474</v>
+        <v>15.3351038290226</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.891956041101528</v>
+        <v>15.38617627700364</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.24505967273782</v>
+        <v>7.055975543191447</v>
       </c>
       <c r="E23">
-        <v>63.91737810321298</v>
+        <v>10.41327672924208</v>
       </c>
       <c r="F23">
-        <v>74.00142764468431</v>
+        <v>22.10505130115676</v>
       </c>
       <c r="G23">
-        <v>1.639621993213503</v>
+        <v>24.45858952872813</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>9.194340898362796</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.53062845490273</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.97147742504463</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.070355399161124</v>
       </c>
       <c r="M23">
-        <v>106.0914725004549</v>
+        <v>11.2620862408793</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>59.9079230267474</v>
+        <v>15.33772630919885</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.891956041101528</v>
+        <v>14.45321652871558</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.24505967273782</v>
+        <v>6.953890270321943</v>
       </c>
       <c r="E24">
-        <v>63.91737810321298</v>
+        <v>10.60807182188823</v>
       </c>
       <c r="F24">
-        <v>74.00142764468431</v>
+        <v>21.96400296784985</v>
       </c>
       <c r="G24">
-        <v>1.639621993213503</v>
+        <v>24.07501691372365</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.2918565019474</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.654570674874771</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.07762717651574</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.669094349388273</v>
       </c>
       <c r="M24">
-        <v>106.0914725004549</v>
+        <v>10.72061074372346</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>59.9079230267474</v>
+        <v>15.37449995586559</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.891956041101528</v>
+        <v>13.39310907917647</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.24505967273782</v>
+        <v>6.853754092185434</v>
       </c>
       <c r="E25">
-        <v>63.91737810321298</v>
+        <v>10.83129276330487</v>
       </c>
       <c r="F25">
-        <v>74.00142764468431</v>
+        <v>21.88770978544062</v>
       </c>
       <c r="G25">
-        <v>1.639621993213503</v>
+        <v>23.77058422061021</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>9.419216457926979</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.793113582020259</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.05090262462392</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.207874463725799</v>
       </c>
       <c r="M25">
-        <v>106.0914725004549</v>
+        <v>10.11524831144329</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>59.9079230267474</v>
+        <v>15.46714281123897</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.57014212326653</v>
+        <v>15.75736873280669</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.788660648383958</v>
+        <v>11.0651813289378</v>
       </c>
       <c r="E2">
-        <v>11.00687574003878</v>
+        <v>17.9515500816985</v>
       </c>
       <c r="F2">
-        <v>21.89186266990655</v>
+        <v>34.00903894237062</v>
       </c>
       <c r="G2">
-        <v>23.63391025344477</v>
+        <v>34.29816841915624</v>
       </c>
       <c r="H2">
-        <v>9.530499980327484</v>
+        <v>15.81602637450376</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.899573943228077</v>
+        <v>12.62912984307422</v>
       </c>
       <c r="K2">
-        <v>13.24331338865013</v>
+        <v>9.767162855987181</v>
       </c>
       <c r="L2">
-        <v>5.844765928896006</v>
+        <v>7.924163057567034</v>
       </c>
       <c r="M2">
-        <v>9.654042461707494</v>
+        <v>14.59644489691356</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.57663639524472</v>
+        <v>24.7841024839572</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.98859304437032</v>
+        <v>15.65967858411268</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.749936050435669</v>
+        <v>11.08111636696271</v>
       </c>
       <c r="E3">
-        <v>11.13286652448951</v>
+        <v>18.00430406571957</v>
       </c>
       <c r="F3">
-        <v>21.92974632937457</v>
+        <v>34.11796858626307</v>
       </c>
       <c r="G3">
-        <v>23.59214038965526</v>
+        <v>34.41861897301779</v>
       </c>
       <c r="H3">
-        <v>9.616126172403748</v>
+        <v>15.86577133542626</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.974632349482927</v>
+        <v>12.6559377599864</v>
       </c>
       <c r="K3">
-        <v>12.6653753469237</v>
+        <v>9.498155289324901</v>
       </c>
       <c r="L3">
-        <v>5.584677107420227</v>
+        <v>7.884784927224814</v>
       </c>
       <c r="M3">
-        <v>9.333575532853446</v>
+        <v>14.55928190945209</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.67451188102438</v>
+        <v>24.87103771344442</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.62090547460667</v>
+        <v>15.60182502278972</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.728810488409807</v>
+        <v>11.09228595307725</v>
       </c>
       <c r="E4">
-        <v>11.21367742656927</v>
+        <v>18.03857771411939</v>
       </c>
       <c r="F4">
-        <v>21.96943454753554</v>
+        <v>34.19145638514679</v>
       </c>
       <c r="G4">
-        <v>23.59023659086982</v>
+        <v>34.50135875395598</v>
       </c>
       <c r="H4">
-        <v>9.673518053566889</v>
+        <v>15.89848928643692</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.022194905939733</v>
+        <v>12.67326564719493</v>
       </c>
       <c r="K4">
-        <v>12.2961037507212</v>
+        <v>9.327735112853187</v>
       </c>
       <c r="L4">
-        <v>5.418367078710682</v>
+        <v>7.861074376584336</v>
       </c>
       <c r="M4">
-        <v>9.133595439691526</v>
+        <v>14.53793255374607</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.74561691593782</v>
+        <v>24.92886547676805</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.46860248359634</v>
+        <v>15.5788037990011</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.72086667008007</v>
+        <v>11.0971865291238</v>
       </c>
       <c r="E5">
-        <v>11.24747675655348</v>
+        <v>18.05301899352087</v>
       </c>
       <c r="F5">
-        <v>21.98960827068408</v>
+        <v>34.22306251027188</v>
       </c>
       <c r="G5">
-        <v>23.59522275626068</v>
+        <v>34.53727839839515</v>
       </c>
       <c r="H5">
-        <v>9.698086301654261</v>
+        <v>15.91236935422583</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.041954040881407</v>
+        <v>12.68054573148009</v>
       </c>
       <c r="K5">
-        <v>12.14212315059143</v>
+        <v>9.257035510853274</v>
       </c>
       <c r="L5">
-        <v>5.348984897782586</v>
+        <v>7.851535487424092</v>
       </c>
       <c r="M5">
-        <v>9.051408726243675</v>
+        <v>14.52960725816567</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.77726485174582</v>
+        <v>24.95354902496967</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.4431701453552</v>
+        <v>15.5750151860152</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.719587700250806</v>
+        <v>11.09802135168146</v>
       </c>
       <c r="E6">
-        <v>11.25314155985622</v>
+        <v>18.05544564803852</v>
       </c>
       <c r="F6">
-        <v>21.99319589305796</v>
+        <v>34.22841085177517</v>
       </c>
       <c r="G6">
-        <v>23.5963924699712</v>
+        <v>34.543375674522</v>
       </c>
       <c r="H6">
-        <v>9.702236281079541</v>
+        <v>15.91470719493364</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.04525796551826</v>
+        <v>12.6817678193862</v>
       </c>
       <c r="K6">
-        <v>12.11634749855346</v>
+        <v>9.245222363377424</v>
       </c>
       <c r="L6">
-        <v>5.337368579276767</v>
+        <v>7.849959176690859</v>
       </c>
       <c r="M6">
-        <v>9.037723349935838</v>
+        <v>14.52824763477997</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.78267859410506</v>
+        <v>24.95771523450992</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.61886116500186</v>
+        <v>15.60151228014051</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.728700665673661</v>
+        <v>11.09235063070642</v>
       </c>
       <c r="E7">
-        <v>11.21412974021472</v>
+        <v>18.03877055157217</v>
       </c>
       <c r="F7">
-        <v>21.96969059251875</v>
+        <v>34.19187592023154</v>
       </c>
       <c r="G7">
-        <v>23.59028078710905</v>
+        <v>34.50183426904427</v>
       </c>
       <c r="H7">
-        <v>9.673844648648663</v>
+        <v>15.89867426150136</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.022459850556572</v>
+        <v>12.67336294207878</v>
       </c>
       <c r="K7">
-        <v>12.29404110294354</v>
+        <v>9.326786609131869</v>
       </c>
       <c r="L7">
-        <v>5.417437805489708</v>
+        <v>7.860945224886677</v>
       </c>
       <c r="M7">
-        <v>9.132489689364016</v>
+        <v>14.53781875166974</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.74603303705445</v>
+        <v>24.92919384061033</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.37193891956078</v>
+        <v>15.72325520872539</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.774757353690382</v>
+        <v>11.07038850147232</v>
       </c>
       <c r="E8">
-        <v>11.04960091858451</v>
+        <v>17.96934962102891</v>
       </c>
       <c r="F8">
-        <v>21.90143729902781</v>
+        <v>34.04522622306725</v>
       </c>
       <c r="G8">
-        <v>23.61445740962135</v>
+        <v>34.33787343505153</v>
       </c>
       <c r="H8">
-        <v>9.559005100883807</v>
+        <v>15.8327274414082</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.925151186358495</v>
+        <v>12.63819350095969</v>
       </c>
       <c r="K8">
-        <v>13.04710132151728</v>
+        <v>9.675537362302993</v>
       </c>
       <c r="L8">
-        <v>5.756489645321724</v>
+        <v>7.910491866483839</v>
       </c>
       <c r="M8">
-        <v>9.544277839652553</v>
+        <v>14.58332953478005</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.60804013220147</v>
+        <v>24.8131540188447</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.75709282891686</v>
+        <v>15.9779989736982</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.886145848346728</v>
+        <v>11.03829043112509</v>
       </c>
       <c r="E9">
-        <v>10.75435462635946</v>
+        <v>17.84810099288238</v>
       </c>
       <c r="F9">
-        <v>21.90370320239848</v>
+        <v>33.81011573069668</v>
       </c>
       <c r="G9">
-        <v>23.85907952200056</v>
+        <v>34.08628776413008</v>
       </c>
       <c r="H9">
-        <v>9.373495259850699</v>
+        <v>15.72063668482282</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.745771765384851</v>
+        <v>12.57608221249171</v>
       </c>
       <c r="K9">
-        <v>14.4049474354266</v>
+        <v>10.31508756760121</v>
       </c>
       <c r="L9">
-        <v>6.366962010950945</v>
+        <v>8.011107745867193</v>
       </c>
       <c r="M9">
-        <v>10.32177956632814</v>
+        <v>14.68398551460932</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.4292408937068</v>
+        <v>24.62092506846079</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.71081865754051</v>
+        <v>16.17369049969123</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.980817153980452</v>
+        <v>11.02136330775364</v>
       </c>
       <c r="E10">
-        <v>10.55416553015352</v>
+        <v>17.76802293126565</v>
       </c>
       <c r="F10">
-        <v>21.99609421580275</v>
+        <v>33.66945075757997</v>
       </c>
       <c r="G10">
-        <v>24.17024514885054</v>
+        <v>33.94441576628179</v>
       </c>
       <c r="H10">
-        <v>9.263565821720231</v>
+        <v>15.64875793837363</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.620561603203302</v>
+        <v>12.53458773393591</v>
       </c>
       <c r="K10">
-        <v>15.32524283239765</v>
+        <v>10.75467961411015</v>
       </c>
       <c r="L10">
-        <v>6.780273331962011</v>
+        <v>8.086786341916351</v>
       </c>
       <c r="M10">
-        <v>10.86937130732101</v>
+        <v>14.76455152388369</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.36014527556579</v>
+        <v>24.50125925805748</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.12956100342852</v>
+        <v>16.2642958487151</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.026652531039165</v>
+        <v>11.01510035727279</v>
       </c>
       <c r="E11">
-        <v>10.46674343460332</v>
+        <v>17.73353323418264</v>
       </c>
       <c r="F11">
-        <v>22.05943126119742</v>
+        <v>33.6124384675831</v>
       </c>
       <c r="G11">
-        <v>24.3424698320839</v>
+        <v>33.88926825894135</v>
       </c>
       <c r="H11">
-        <v>9.219796986179452</v>
+        <v>15.61832662093217</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.564938319407821</v>
+        <v>12.51660081398096</v>
       </c>
       <c r="K11">
-        <v>15.7264040474404</v>
+        <v>10.94749959297156</v>
       </c>
       <c r="L11">
-        <v>6.960358580916084</v>
+        <v>8.121519136416154</v>
       </c>
       <c r="M11">
-        <v>11.11242423646122</v>
+        <v>14.80256178460855</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.34364086960264</v>
+        <v>24.4515089975286</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.28587641431396</v>
+        <v>16.29881001512496</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.044404383156615</v>
+        <v>11.01293472106687</v>
       </c>
       <c r="E12">
-        <v>10.43416567023699</v>
+        <v>17.72075046745429</v>
       </c>
       <c r="F12">
-        <v>22.08660618518012</v>
+        <v>33.5918538376056</v>
       </c>
       <c r="G12">
-        <v>24.41225127941555</v>
+        <v>33.86974034089504</v>
       </c>
       <c r="H12">
-        <v>9.204166318148436</v>
+        <v>15.60712858560592</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.544059584794087</v>
+        <v>12.50991683884248</v>
       </c>
       <c r="K12">
-        <v>15.87575534013521</v>
+        <v>11.0194443674152</v>
       </c>
       <c r="L12">
-        <v>7.027393835439121</v>
+        <v>8.134708942576548</v>
       </c>
       <c r="M12">
-        <v>11.20352758418015</v>
+        <v>14.81714394662271</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.33965675922932</v>
+        <v>24.43334431569587</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.25231240291181</v>
+        <v>16.29136808764272</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.040563693859868</v>
+        <v>11.0133919784948</v>
       </c>
       <c r="E13">
-        <v>10.44115837744823</v>
+        <v>17.72349112821554</v>
       </c>
       <c r="F13">
-        <v>22.0806097062642</v>
+        <v>33.59624240115988</v>
       </c>
       <c r="G13">
-        <v>24.39701735221467</v>
+        <v>33.87388567959365</v>
       </c>
       <c r="H13">
-        <v>9.207489921452909</v>
+        <v>15.60952580449361</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.548548106050997</v>
+        <v>12.51135070070862</v>
       </c>
       <c r="K13">
-        <v>15.84370431845171</v>
+        <v>11.00399809300501</v>
       </c>
       <c r="L13">
-        <v>7.013008390107236</v>
+        <v>8.13186673368334</v>
       </c>
       <c r="M13">
-        <v>11.18394940444081</v>
+        <v>14.81399514900975</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.34041211931511</v>
+        <v>24.43722638705392</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.14246672308858</v>
+        <v>16.26713140173858</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.028105090755055</v>
+        <v>11.01491806438492</v>
       </c>
       <c r="E14">
-        <v>10.46405265918309</v>
+        <v>17.73247602765882</v>
       </c>
       <c r="F14">
-        <v>22.06160230450702</v>
+        <v>33.6107248146351</v>
       </c>
       <c r="G14">
-        <v>24.34811850889287</v>
+        <v>33.8876344978696</v>
       </c>
       <c r="H14">
-        <v>9.218491852843856</v>
+        <v>15.617398827137</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.563216957603684</v>
+        <v>12.51604837169173</v>
       </c>
       <c r="K14">
-        <v>15.73874279015844</v>
+        <v>10.95344024952554</v>
       </c>
       <c r="L14">
-        <v>6.965896931135869</v>
+        <v>8.122603562199625</v>
       </c>
       <c r="M14">
-        <v>11.11993845662361</v>
+        <v>14.80375773151305</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.34326699543489</v>
+        <v>24.45000105262715</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.07488754842167</v>
+        <v>16.25231156924141</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.020525171253546</v>
+        <v>11.0158796436206</v>
       </c>
       <c r="E15">
-        <v>10.47814481018482</v>
+        <v>17.73801567815588</v>
       </c>
       <c r="F15">
-        <v>22.05037891415302</v>
+        <v>33.61972659066709</v>
       </c>
       <c r="G15">
-        <v>24.3187651610546</v>
+        <v>33.89623267622289</v>
       </c>
       <c r="H15">
-        <v>9.225355174079478</v>
+        <v>15.62226368047449</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.572225865937984</v>
+        <v>12.51894238961308</v>
       </c>
       <c r="K15">
-        <v>15.67411631038921</v>
+        <v>10.9223312965099</v>
       </c>
       <c r="L15">
-        <v>6.936888383350665</v>
+        <v>8.116934251051262</v>
       </c>
       <c r="M15">
-        <v>11.08060627762648</v>
+        <v>14.79751135132831</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.34531432976991</v>
+        <v>24.45791378770311</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.68314152194073</v>
+        <v>16.16779906751431</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.977877164633804</v>
+        <v>11.02180147157463</v>
       </c>
       <c r="E16">
-        <v>10.55995235047066</v>
+        <v>17.77031583189281</v>
       </c>
       <c r="F16">
-        <v>21.99239466397409</v>
+        <v>33.67331716216798</v>
       </c>
       <c r="G16">
-        <v>24.15962050713867</v>
+        <v>33.94820917740747</v>
       </c>
       <c r="H16">
-        <v>9.266555666986157</v>
+        <v>15.65079228200231</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.624222959931299</v>
+        <v>12.53578106374741</v>
       </c>
       <c r="K16">
-        <v>15.2986700165304</v>
+        <v>10.74193063036141</v>
       </c>
       <c r="L16">
-        <v>6.768343031178446</v>
+        <v>8.084522055537297</v>
       </c>
       <c r="M16">
-        <v>10.85335967910618</v>
+        <v>14.76209423437612</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.36153439775507</v>
+        <v>24.50460492205586</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.43888487245277</v>
+        <v>16.11634222324991</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.95242112214538</v>
+        <v>11.02580197855183</v>
       </c>
       <c r="E17">
-        <v>10.61107405107049</v>
+        <v>17.79062665243848</v>
       </c>
       <c r="F17">
-        <v>21.96237190575013</v>
+        <v>33.70798124580076</v>
       </c>
       <c r="G17">
-        <v>24.06996025967704</v>
+        <v>33.98250387410094</v>
       </c>
       <c r="H17">
-        <v>9.293460894348955</v>
+        <v>15.6688739897111</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.656458345073676</v>
+        <v>12.54633836129363</v>
       </c>
       <c r="K17">
-        <v>15.06383152305218</v>
+        <v>10.62939636194992</v>
       </c>
       <c r="L17">
-        <v>6.662899590345711</v>
+        <v>8.064711847015246</v>
       </c>
       <c r="M17">
-        <v>10.71235225334623</v>
+        <v>14.74071040665106</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.37539230377047</v>
+        <v>24.53444925753239</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.29697608344095</v>
+        <v>16.08689618128267</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.938040338415997</v>
+        <v>11.02823829104755</v>
       </c>
       <c r="E18">
-        <v>10.64082076026081</v>
+        <v>17.80249139103923</v>
       </c>
       <c r="F18">
-        <v>21.94710187669377</v>
+        <v>33.72857573344555</v>
       </c>
       <c r="G18">
-        <v>24.02126903694185</v>
+        <v>34.00311291599417</v>
       </c>
       <c r="H18">
-        <v>9.309520318957135</v>
+        <v>15.67948747840849</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.675125449597096</v>
+        <v>12.55249436240067</v>
       </c>
       <c r="K18">
-        <v>14.92711474109706</v>
+        <v>10.56399868589796</v>
       </c>
       <c r="L18">
-        <v>6.601505476398635</v>
+        <v>8.053346772266432</v>
       </c>
       <c r="M18">
-        <v>10.63068244836308</v>
+        <v>14.72853947941154</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.38476078126931</v>
+        <v>24.5520559832113</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.24868724569138</v>
+        <v>16.07695284325326</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.933216141385786</v>
+        <v>11.02908644689028</v>
       </c>
       <c r="E19">
-        <v>10.65095129319083</v>
+        <v>17.80653996085468</v>
       </c>
       <c r="F19">
-        <v>21.94227099329608</v>
+        <v>33.73566140352928</v>
       </c>
       <c r="G19">
-        <v>24.00527258879706</v>
+        <v>34.01024239432699</v>
       </c>
       <c r="H19">
-        <v>9.315056738757947</v>
+        <v>15.68311767893962</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.681467700367365</v>
+        <v>12.55459307565414</v>
       </c>
       <c r="K19">
-        <v>14.88054401238632</v>
+        <v>10.5417423189797</v>
       </c>
       <c r="L19">
-        <v>6.580591029633953</v>
+        <v>8.049503979778748</v>
       </c>
       <c r="M19">
-        <v>10.60293538436093</v>
+        <v>14.72444089350285</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.38816925958938</v>
+        <v>24.55809304534668</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.4650338872631</v>
+        <v>16.12180448083828</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.955103984518518</v>
+        <v>11.02536211669591</v>
       </c>
       <c r="E20">
-        <v>10.60559655512408</v>
+        <v>17.78844565083837</v>
       </c>
       <c r="F20">
-        <v>21.96536013770529</v>
+        <v>33.7042232261666</v>
       </c>
       <c r="G20">
-        <v>24.07920562742675</v>
+        <v>33.97876165515064</v>
       </c>
       <c r="H20">
-        <v>9.29053599149508</v>
+        <v>15.66692708041336</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.653013828665454</v>
+        <v>12.54520585812924</v>
       </c>
       <c r="K20">
-        <v>15.08900098155535</v>
+        <v>10.64144559565579</v>
       </c>
       <c r="L20">
-        <v>6.674201565007371</v>
+        <v>8.066817700955644</v>
       </c>
       <c r="M20">
-        <v>10.72742182444054</v>
+        <v>14.7429735048328</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.37377158481696</v>
+        <v>24.53122662402179</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.17479276840861</v>
+        <v>16.2742449624416</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.031753792891483</v>
+        <v>11.01446423055262</v>
       </c>
       <c r="E21">
-        <v>10.45731372150347</v>
+        <v>17.72982941505288</v>
       </c>
       <c r="F21">
-        <v>22.067097659822</v>
+        <v>33.60644370121274</v>
       </c>
       <c r="G21">
-        <v>24.36235628418014</v>
+        <v>33.88355931901894</v>
       </c>
       <c r="H21">
-        <v>9.215234323465529</v>
+        <v>15.61507749402444</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.558903411440585</v>
+        <v>12.51466510202906</v>
       </c>
       <c r="K21">
-        <v>15.76964231323484</v>
+        <v>10.96831973048388</v>
       </c>
       <c r="L21">
-        <v>6.979766290575196</v>
+        <v>8.125323423569661</v>
       </c>
       <c r="M21">
-        <v>11.13876589148616</v>
+        <v>14.80675965107175</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.34236599725949</v>
+        <v>24.44623050748266</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.62550207724314</v>
+        <v>16.37505078066674</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.084149303612135</v>
+        <v>11.00854225843151</v>
       </c>
       <c r="E22">
-        <v>10.36347649654275</v>
+        <v>17.69313871058567</v>
       </c>
       <c r="F22">
-        <v>22.15224182980692</v>
+        <v>33.54839577357478</v>
       </c>
       <c r="G22">
-        <v>24.57407252136255</v>
+        <v>33.8292404528278</v>
       </c>
       <c r="H22">
-        <v>9.171544276224722</v>
+        <v>15.58308876046764</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.498469077256011</v>
+        <v>12.4954465812332</v>
       </c>
       <c r="K22">
-        <v>16.199547017311</v>
+        <v>11.17568558363343</v>
       </c>
       <c r="L22">
-        <v>7.172708934122353</v>
+        <v>8.163774239158213</v>
       </c>
       <c r="M22">
-        <v>11.40212595081584</v>
+        <v>14.8495428711194</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.3351038290226</v>
+        <v>24.39461342228363</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.38617627700364</v>
+        <v>16.32114907606377</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.055975543191447</v>
+        <v>11.01159332012757</v>
       </c>
       <c r="E23">
-        <v>10.41327672924208</v>
+        <v>17.71257346767609</v>
       </c>
       <c r="F23">
-        <v>22.10505130115676</v>
+        <v>33.57884072916457</v>
       </c>
       <c r="G23">
-        <v>24.45858952872813</v>
+        <v>33.85750698246243</v>
       </c>
       <c r="H23">
-        <v>9.194340898362796</v>
+        <v>15.59998818324134</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.53062845490273</v>
+        <v>12.50563619674503</v>
       </c>
       <c r="K23">
-        <v>15.97147742504463</v>
+        <v>11.06559700358247</v>
       </c>
       <c r="L23">
-        <v>7.070355399161124</v>
+        <v>8.143234993812511</v>
       </c>
       <c r="M23">
-        <v>11.2620862408793</v>
+        <v>14.82661084663844</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.33772630919885</v>
+        <v>24.42180233125853</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.45321652871558</v>
+        <v>16.11933456505633</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.953890270321943</v>
+        <v>11.02556055343189</v>
       </c>
       <c r="E24">
-        <v>10.60807182188823</v>
+        <v>17.78943109668704</v>
       </c>
       <c r="F24">
-        <v>21.96400296784985</v>
+        <v>33.70592015352779</v>
       </c>
       <c r="G24">
-        <v>24.07501691372365</v>
+        <v>33.98045073244555</v>
       </c>
       <c r="H24">
-        <v>9.2918565019474</v>
+        <v>15.6678065987959</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.654570674874771</v>
+        <v>12.54571759342033</v>
       </c>
       <c r="K24">
-        <v>15.07762717651574</v>
+        <v>10.63600031482731</v>
       </c>
       <c r="L24">
-        <v>6.669094349388273</v>
+        <v>8.065865568876339</v>
       </c>
       <c r="M24">
-        <v>10.72061074372346</v>
+        <v>14.74194997472627</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.37449995586559</v>
+        <v>24.53268217864763</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.39310907917647</v>
+        <v>15.9074947489101</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.853754092185434</v>
+        <v>11.04580259848189</v>
       </c>
       <c r="E25">
-        <v>10.83129276330487</v>
+        <v>17.8793157715756</v>
       </c>
       <c r="F25">
-        <v>21.88770978544062</v>
+        <v>33.86809305019259</v>
       </c>
       <c r="G25">
-        <v>23.77058422061021</v>
+        <v>34.14682523385673</v>
       </c>
       <c r="H25">
-        <v>9.419216457926979</v>
+        <v>15.74911866719374</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.793113582020259</v>
+        <v>12.59215523403276</v>
       </c>
       <c r="K25">
-        <v>14.05090262462392</v>
+        <v>10.14717560363419</v>
       </c>
       <c r="L25">
-        <v>6.207874463725799</v>
+        <v>7.983554284177336</v>
       </c>
       <c r="M25">
-        <v>10.11524831144329</v>
+        <v>14.65556821992005</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.46714281123897</v>
+        <v>24.66914319157414</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.75736873280669</v>
+        <v>12.57014212326657</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.0651813289378</v>
+        <v>6.788660648384122</v>
       </c>
       <c r="E2">
-        <v>17.9515500816985</v>
+        <v>11.00687574003891</v>
       </c>
       <c r="F2">
-        <v>34.00903894237062</v>
+        <v>21.89186266990655</v>
       </c>
       <c r="G2">
-        <v>34.29816841915624</v>
+        <v>23.63391025344466</v>
       </c>
       <c r="H2">
-        <v>15.81602637450376</v>
+        <v>9.530499980327429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.62912984307422</v>
+        <v>7.899573943228077</v>
       </c>
       <c r="K2">
-        <v>9.767162855987181</v>
+        <v>13.24331338865017</v>
       </c>
       <c r="L2">
-        <v>7.924163057567034</v>
+        <v>5.844765928896066</v>
       </c>
       <c r="M2">
-        <v>14.59644489691356</v>
+        <v>9.654042461707519</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.7841024839572</v>
+        <v>15.57663639524464</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.65967858411268</v>
+        <v>11.98859304437035</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11.08111636696271</v>
+        <v>6.749936050435605</v>
       </c>
       <c r="E3">
-        <v>18.00430406571957</v>
+        <v>11.13286652448957</v>
       </c>
       <c r="F3">
-        <v>34.11796858626307</v>
+        <v>21.92974632937422</v>
       </c>
       <c r="G3">
-        <v>34.41861897301779</v>
+        <v>23.59214038965492</v>
       </c>
       <c r="H3">
-        <v>15.86577133542626</v>
+        <v>9.616126172403687</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.6559377599864</v>
+        <v>7.974632349483129</v>
       </c>
       <c r="K3">
-        <v>9.498155289324901</v>
+        <v>12.66537534692378</v>
       </c>
       <c r="L3">
-        <v>7.884784927224814</v>
+        <v>5.584677107420283</v>
       </c>
       <c r="M3">
-        <v>14.55928190945209</v>
+        <v>9.333575532853425</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.87103771344442</v>
+        <v>15.67451188102417</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.60182502278972</v>
+        <v>11.62090547460661</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.09228595307725</v>
+        <v>6.728810488409819</v>
       </c>
       <c r="E4">
-        <v>18.03857771411939</v>
+        <v>11.21367742656934</v>
       </c>
       <c r="F4">
-        <v>34.19145638514679</v>
+        <v>21.96943454753526</v>
       </c>
       <c r="G4">
-        <v>34.50135875395598</v>
+        <v>23.59023659086929</v>
       </c>
       <c r="H4">
-        <v>15.89848928643692</v>
+        <v>9.673518053566832</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.67326564719493</v>
+        <v>8.022194905939767</v>
       </c>
       <c r="K4">
-        <v>9.327735112853187</v>
+        <v>12.29610375072134</v>
       </c>
       <c r="L4">
-        <v>7.861074376584336</v>
+        <v>5.418367078710714</v>
       </c>
       <c r="M4">
-        <v>14.53793255374607</v>
+        <v>9.133595439691476</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.92886547676805</v>
+        <v>15.74561691593756</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.5788037990011</v>
+        <v>11.46860248359626</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.0971865291238</v>
+        <v>6.720866670080119</v>
       </c>
       <c r="E5">
-        <v>18.05301899352087</v>
+        <v>11.24747675655342</v>
       </c>
       <c r="F5">
-        <v>34.22306251027188</v>
+        <v>21.9896082706838</v>
       </c>
       <c r="G5">
-        <v>34.53727839839515</v>
+        <v>23.59522275626018</v>
       </c>
       <c r="H5">
-        <v>15.91236935422583</v>
+        <v>9.698086301654076</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.68054573148009</v>
+        <v>8.041954040881205</v>
       </c>
       <c r="K5">
-        <v>9.257035510853274</v>
+        <v>12.14212315059145</v>
       </c>
       <c r="L5">
-        <v>7.851535487424092</v>
+        <v>5.348984897782668</v>
       </c>
       <c r="M5">
-        <v>14.52960725816567</v>
+        <v>9.051408726243594</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.95354902496967</v>
+        <v>15.77726485174553</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.5750151860152</v>
+        <v>11.44317014535515</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.09802135168146</v>
+        <v>6.719587700250808</v>
       </c>
       <c r="E6">
-        <v>18.05544564803852</v>
+        <v>11.25314155985622</v>
       </c>
       <c r="F6">
-        <v>34.22841085177517</v>
+        <v>21.9931958930576</v>
       </c>
       <c r="G6">
-        <v>34.543375674522</v>
+        <v>23.59639246997064</v>
       </c>
       <c r="H6">
-        <v>15.91470719493364</v>
+        <v>9.702236281079404</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.6817678193862</v>
+        <v>8.045257965518189</v>
       </c>
       <c r="K6">
-        <v>9.245222363377424</v>
+        <v>12.11634749855348</v>
       </c>
       <c r="L6">
-        <v>7.849959176690859</v>
+        <v>5.337368579276751</v>
       </c>
       <c r="M6">
-        <v>14.52824763477997</v>
+        <v>9.037723349935803</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.95771523450992</v>
+        <v>15.78267859410481</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.60151228014051</v>
+        <v>11.61886116500179</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.09235063070642</v>
+        <v>6.728700665673563</v>
       </c>
       <c r="E7">
-        <v>18.03877055157217</v>
+        <v>11.21412974021472</v>
       </c>
       <c r="F7">
-        <v>34.19187592023154</v>
+        <v>21.9696905925186</v>
       </c>
       <c r="G7">
-        <v>34.50183426904427</v>
+        <v>23.59028078710874</v>
       </c>
       <c r="H7">
-        <v>15.89867426150136</v>
+        <v>9.673844648648663</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.67336294207878</v>
+        <v>8.022459850556608</v>
       </c>
       <c r="K7">
-        <v>9.326786609131869</v>
+        <v>12.29404110294363</v>
       </c>
       <c r="L7">
-        <v>7.860945224886677</v>
+        <v>5.417437805489768</v>
       </c>
       <c r="M7">
-        <v>14.53781875166974</v>
+        <v>9.132489689363986</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.92919384061033</v>
+        <v>15.74603303705434</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.72325520872539</v>
+        <v>12.37193891956079</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.07038850147232</v>
+        <v>6.774757353690276</v>
       </c>
       <c r="E8">
-        <v>17.96934962102891</v>
+        <v>11.04960091858445</v>
       </c>
       <c r="F8">
-        <v>34.04522622306725</v>
+        <v>21.90143729902771</v>
       </c>
       <c r="G8">
-        <v>34.33787343505153</v>
+        <v>23.61445740962124</v>
       </c>
       <c r="H8">
-        <v>15.8327274414082</v>
+        <v>9.559005100883752</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.63819350095969</v>
+        <v>7.925151186358493</v>
       </c>
       <c r="K8">
-        <v>9.675537362302993</v>
+        <v>13.0471013215173</v>
       </c>
       <c r="L8">
-        <v>7.910491866483839</v>
+        <v>5.756489645321773</v>
       </c>
       <c r="M8">
-        <v>14.58332953478005</v>
+        <v>9.544277839652532</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.8131540188447</v>
+        <v>15.60804013220144</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.9779989736982</v>
+        <v>13.75709282891686</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.03829043112509</v>
+        <v>6.886145848346841</v>
       </c>
       <c r="E9">
-        <v>17.84810099288238</v>
+        <v>10.75435462635953</v>
       </c>
       <c r="F9">
-        <v>33.81011573069668</v>
+        <v>21.90370320239851</v>
       </c>
       <c r="G9">
-        <v>34.08628776413008</v>
+        <v>23.8590795220005</v>
       </c>
       <c r="H9">
-        <v>15.72063668482282</v>
+        <v>9.37349525985071</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.57608221249171</v>
+        <v>7.745771765384853</v>
       </c>
       <c r="K9">
-        <v>10.31508756760121</v>
+        <v>14.40494743542666</v>
       </c>
       <c r="L9">
-        <v>8.011107745867193</v>
+        <v>6.366962010951005</v>
       </c>
       <c r="M9">
-        <v>14.68398551460932</v>
+        <v>10.32177956632812</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.62092506846079</v>
+        <v>15.42924089370681</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.17369049969123</v>
+        <v>14.71081865754051</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.02136330775364</v>
+        <v>6.980817153980443</v>
       </c>
       <c r="E10">
-        <v>17.76802293126565</v>
+        <v>10.55416553015359</v>
       </c>
       <c r="F10">
-        <v>33.66945075757997</v>
+        <v>21.99609421580272</v>
       </c>
       <c r="G10">
-        <v>33.94441576628179</v>
+        <v>24.17024514885057</v>
       </c>
       <c r="H10">
-        <v>15.64875793837363</v>
+        <v>9.263565821720173</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.53458773393591</v>
+        <v>7.620561603203335</v>
       </c>
       <c r="K10">
-        <v>10.75467961411015</v>
+        <v>15.32524283239767</v>
       </c>
       <c r="L10">
-        <v>8.086786341916351</v>
+        <v>6.780273331962031</v>
       </c>
       <c r="M10">
-        <v>14.76455152388369</v>
+        <v>10.86937130732101</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.50125925805748</v>
+        <v>15.36014527556577</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.2642958487151</v>
+        <v>15.12956100342854</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.01510035727279</v>
+        <v>7.026652531039125</v>
       </c>
       <c r="E11">
-        <v>17.73353323418264</v>
+        <v>10.46674343460339</v>
       </c>
       <c r="F11">
-        <v>33.6124384675831</v>
+        <v>22.05943126119728</v>
       </c>
       <c r="G11">
-        <v>33.88926825894135</v>
+        <v>24.34246983208372</v>
       </c>
       <c r="H11">
-        <v>15.61832662093217</v>
+        <v>9.219796986179398</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.51660081398096</v>
+        <v>7.564938319407889</v>
       </c>
       <c r="K11">
-        <v>10.94749959297156</v>
+        <v>15.72640404744044</v>
       </c>
       <c r="L11">
-        <v>8.121519136416154</v>
+        <v>6.960358580916126</v>
       </c>
       <c r="M11">
-        <v>14.80256178460855</v>
+        <v>11.11242423646122</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.4515089975286</v>
+        <v>15.34364086960255</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.29881001512496</v>
+        <v>15.28587641431398</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.01293472106687</v>
+        <v>7.044404383156564</v>
       </c>
       <c r="E12">
-        <v>17.72075046745429</v>
+        <v>10.43416567023705</v>
       </c>
       <c r="F12">
-        <v>33.5918538376056</v>
+        <v>22.08660618518014</v>
       </c>
       <c r="G12">
-        <v>33.86974034089504</v>
+        <v>24.41225127941564</v>
       </c>
       <c r="H12">
-        <v>15.60712858560592</v>
+        <v>9.204166318148383</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.50991683884248</v>
+        <v>7.544059584794153</v>
       </c>
       <c r="K12">
-        <v>11.0194443674152</v>
+        <v>15.87575534013516</v>
       </c>
       <c r="L12">
-        <v>8.134708942576548</v>
+        <v>7.027393835439105</v>
       </c>
       <c r="M12">
-        <v>14.81714394662271</v>
+        <v>11.20352758418018</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.43334431569587</v>
+        <v>15.33965675922933</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.29136808764272</v>
+        <v>15.25231240291176</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.0133919784948</v>
+        <v>7.040563693859804</v>
       </c>
       <c r="E13">
-        <v>17.72349112821554</v>
+        <v>10.44115837744816</v>
       </c>
       <c r="F13">
-        <v>33.59624240115988</v>
+        <v>22.08060970626394</v>
       </c>
       <c r="G13">
-        <v>33.87388567959365</v>
+        <v>24.39701735221428</v>
       </c>
       <c r="H13">
-        <v>15.60952580449361</v>
+        <v>9.207489921452812</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.51135070070862</v>
+        <v>7.548548106050895</v>
       </c>
       <c r="K13">
-        <v>11.00399809300501</v>
+        <v>15.84370431845177</v>
       </c>
       <c r="L13">
-        <v>8.13186673368334</v>
+        <v>7.013008390107274</v>
       </c>
       <c r="M13">
-        <v>14.81399514900975</v>
+        <v>11.18394940444076</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.43722638705392</v>
+        <v>15.3404121193149</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.26713140173858</v>
+        <v>15.14246672308856</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.01491806438492</v>
+        <v>7.028105090754982</v>
       </c>
       <c r="E14">
-        <v>17.73247602765882</v>
+        <v>10.46405265918315</v>
       </c>
       <c r="F14">
-        <v>33.6107248146351</v>
+        <v>22.06160230450668</v>
       </c>
       <c r="G14">
-        <v>33.8876344978696</v>
+        <v>24.34811850889245</v>
       </c>
       <c r="H14">
-        <v>15.617398827137</v>
+        <v>9.218491852843693</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.51604837169173</v>
+        <v>7.56321695760375</v>
       </c>
       <c r="K14">
-        <v>10.95344024952554</v>
+        <v>15.73874279015856</v>
       </c>
       <c r="L14">
-        <v>8.122603562199625</v>
+        <v>6.965896931135937</v>
       </c>
       <c r="M14">
-        <v>14.80375773151305</v>
+        <v>11.11993845662358</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.45000105262715</v>
+        <v>15.34326699543464</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.25231156924141</v>
+        <v>15.07488754842169</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.0158796436206</v>
+        <v>7.020525171253649</v>
       </c>
       <c r="E15">
-        <v>17.73801567815588</v>
+        <v>10.47814481018488</v>
       </c>
       <c r="F15">
-        <v>33.61972659066709</v>
+        <v>22.0503789141531</v>
       </c>
       <c r="G15">
-        <v>33.89623267622289</v>
+        <v>24.31876516105466</v>
       </c>
       <c r="H15">
-        <v>15.62226368047449</v>
+        <v>9.225355174079468</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.51894238961308</v>
+        <v>7.572225865937916</v>
       </c>
       <c r="K15">
-        <v>10.9223312965099</v>
+        <v>15.67411631038917</v>
       </c>
       <c r="L15">
-        <v>8.116934251051262</v>
+        <v>6.93688838335062</v>
       </c>
       <c r="M15">
-        <v>14.79751135132831</v>
+        <v>11.08060627762651</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.45791378770311</v>
+        <v>15.34531432976994</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.16779906751431</v>
+        <v>14.68314152194069</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.02180147157463</v>
+        <v>6.977877164633663</v>
       </c>
       <c r="E16">
-        <v>17.77031583189281</v>
+        <v>10.5599523504706</v>
       </c>
       <c r="F16">
-        <v>33.67331716216798</v>
+        <v>21.99239466397381</v>
       </c>
       <c r="G16">
-        <v>33.94820917740747</v>
+        <v>24.15962050713836</v>
       </c>
       <c r="H16">
-        <v>15.65079228200231</v>
+        <v>9.266555666986056</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.53578106374741</v>
+        <v>7.624222959931264</v>
       </c>
       <c r="K16">
-        <v>10.74193063036141</v>
+        <v>15.29867001653046</v>
       </c>
       <c r="L16">
-        <v>8.084522055537297</v>
+        <v>6.768343031178517</v>
       </c>
       <c r="M16">
-        <v>14.76209423437612</v>
+        <v>10.85335967910614</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.50460492205586</v>
+        <v>15.36153439775488</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.11634222324991</v>
+        <v>14.43888487245279</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.02580197855183</v>
+        <v>6.952421122145358</v>
       </c>
       <c r="E17">
-        <v>17.79062665243848</v>
+        <v>10.61107405107062</v>
       </c>
       <c r="F17">
-        <v>33.70798124580076</v>
+        <v>21.96237190574997</v>
       </c>
       <c r="G17">
-        <v>33.98250387410094</v>
+        <v>24.06996025967679</v>
       </c>
       <c r="H17">
-        <v>15.6688739897111</v>
+        <v>9.293460894348941</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.54633836129363</v>
+        <v>7.656458345073842</v>
       </c>
       <c r="K17">
-        <v>10.62939636194992</v>
+        <v>15.06383152305221</v>
       </c>
       <c r="L17">
-        <v>8.064711847015246</v>
+        <v>6.662899590345655</v>
       </c>
       <c r="M17">
-        <v>14.74071040665106</v>
+        <v>10.71235225334625</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.53444925753239</v>
+        <v>15.37539230377032</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.08689618128267</v>
+        <v>14.29697608344093</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.02823829104755</v>
+        <v>6.938040338415945</v>
       </c>
       <c r="E18">
-        <v>17.80249139103923</v>
+        <v>10.64082076026087</v>
       </c>
       <c r="F18">
-        <v>33.72857573344555</v>
+        <v>21.94710187669364</v>
       </c>
       <c r="G18">
-        <v>34.00311291599417</v>
+        <v>24.02126903694177</v>
       </c>
       <c r="H18">
-        <v>15.67948747840849</v>
+        <v>9.30952031895708</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.55249436240067</v>
+        <v>7.675125449597096</v>
       </c>
       <c r="K18">
-        <v>10.56399868589796</v>
+        <v>14.92711474109709</v>
       </c>
       <c r="L18">
-        <v>8.053346772266432</v>
+        <v>6.601505476398676</v>
       </c>
       <c r="M18">
-        <v>14.72853947941154</v>
+        <v>10.63068244836306</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.5520559832113</v>
+        <v>15.38476078126921</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.07695284325326</v>
+        <v>14.24868724569138</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.02908644689028</v>
+        <v>6.933216141385796</v>
       </c>
       <c r="E19">
-        <v>17.80653996085468</v>
+        <v>10.6509512931909</v>
       </c>
       <c r="F19">
-        <v>33.73566140352928</v>
+        <v>21.94227099329605</v>
       </c>
       <c r="G19">
-        <v>34.01024239432699</v>
+        <v>24.00527258879709</v>
       </c>
       <c r="H19">
-        <v>15.68311767893962</v>
+        <v>9.315056738757955</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.55459307565414</v>
+        <v>7.681467700367399</v>
       </c>
       <c r="K19">
-        <v>10.5417423189797</v>
+        <v>14.88054401238633</v>
       </c>
       <c r="L19">
-        <v>8.049503979778748</v>
+        <v>6.580591029633992</v>
       </c>
       <c r="M19">
-        <v>14.72444089350285</v>
+        <v>10.60293538436092</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.55809304534668</v>
+        <v>15.38816925958935</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.12180448083828</v>
+        <v>14.46503388726311</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.02536211669591</v>
+        <v>6.955103984518539</v>
       </c>
       <c r="E20">
-        <v>17.78844565083837</v>
+        <v>10.60559655512421</v>
       </c>
       <c r="F20">
-        <v>33.7042232261666</v>
+        <v>21.96536013770519</v>
       </c>
       <c r="G20">
-        <v>33.97876165515064</v>
+        <v>24.07920562742672</v>
       </c>
       <c r="H20">
-        <v>15.66692708041336</v>
+        <v>9.290535991494982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.54520585812924</v>
+        <v>7.653013828665554</v>
       </c>
       <c r="K20">
-        <v>10.64144559565579</v>
+        <v>15.08900098155548</v>
       </c>
       <c r="L20">
-        <v>8.066817700955644</v>
+        <v>6.674201565007393</v>
       </c>
       <c r="M20">
-        <v>14.7429735048328</v>
+        <v>10.72742182444053</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.53122662402179</v>
+        <v>15.37377158481688</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.2742449624416</v>
+        <v>15.17479276840859</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.01446423055262</v>
+        <v>7.031753792891444</v>
       </c>
       <c r="E21">
-        <v>17.72982941505288</v>
+        <v>10.45731372150341</v>
       </c>
       <c r="F21">
-        <v>33.60644370121274</v>
+        <v>22.06709765982196</v>
       </c>
       <c r="G21">
-        <v>33.88355931901894</v>
+        <v>24.36235628418014</v>
       </c>
       <c r="H21">
-        <v>15.61507749402444</v>
+        <v>9.215234323465536</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.51466510202906</v>
+        <v>7.558903411440551</v>
       </c>
       <c r="K21">
-        <v>10.96831973048388</v>
+        <v>15.76964231323485</v>
       </c>
       <c r="L21">
-        <v>8.125323423569661</v>
+        <v>6.979766290575243</v>
       </c>
       <c r="M21">
-        <v>14.80675965107175</v>
+        <v>11.13876589148614</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.44623050748266</v>
+        <v>15.34236599725949</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.37505078066674</v>
+        <v>15.62550207724314</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.00854225843151</v>
+        <v>7.08414930361221</v>
       </c>
       <c r="E22">
-        <v>17.69313871058567</v>
+        <v>10.36347649654294</v>
       </c>
       <c r="F22">
-        <v>33.54839577357478</v>
+        <v>22.15224182980676</v>
       </c>
       <c r="G22">
-        <v>33.8292404528278</v>
+        <v>24.57407252136231</v>
       </c>
       <c r="H22">
-        <v>15.58308876046764</v>
+        <v>9.171544276224667</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.4954465812332</v>
+        <v>7.498469077256181</v>
       </c>
       <c r="K22">
-        <v>11.17568558363343</v>
+        <v>16.19954701731112</v>
       </c>
       <c r="L22">
-        <v>8.163774239158213</v>
+        <v>7.172708934122382</v>
       </c>
       <c r="M22">
-        <v>14.8495428711194</v>
+        <v>11.40212595081583</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.39461342228363</v>
+        <v>15.33510382902244</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.32114907606377</v>
+        <v>15.38617627700367</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.01159332012757</v>
+        <v>7.055975543191581</v>
       </c>
       <c r="E23">
-        <v>17.71257346767609</v>
+        <v>10.41327672924227</v>
       </c>
       <c r="F23">
-        <v>33.57884072916457</v>
+        <v>22.10505130115671</v>
       </c>
       <c r="G23">
-        <v>33.85750698246243</v>
+        <v>24.45858952872805</v>
       </c>
       <c r="H23">
-        <v>15.59998818324134</v>
+        <v>9.194340898362734</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.50563619674503</v>
+        <v>7.530628454902795</v>
       </c>
       <c r="K23">
-        <v>11.06559700358247</v>
+        <v>15.97147742504471</v>
       </c>
       <c r="L23">
-        <v>8.143234993812511</v>
+        <v>7.070355399161185</v>
       </c>
       <c r="M23">
-        <v>14.82661084663844</v>
+        <v>11.2620862408793</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.42180233125853</v>
+        <v>15.33772630919877</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.11933456505633</v>
+        <v>14.45321652871554</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.02556055343189</v>
+        <v>6.95389027032194</v>
       </c>
       <c r="E24">
-        <v>17.78943109668704</v>
+        <v>10.60807182188822</v>
       </c>
       <c r="F24">
-        <v>33.70592015352779</v>
+        <v>21.9640029678498</v>
       </c>
       <c r="G24">
-        <v>33.98045073244555</v>
+        <v>24.07501691372357</v>
       </c>
       <c r="H24">
-        <v>15.6678065987959</v>
+        <v>9.291856501947402</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.54571759342033</v>
+        <v>7.654570674874807</v>
       </c>
       <c r="K24">
-        <v>10.63600031482731</v>
+        <v>15.07762717651577</v>
       </c>
       <c r="L24">
-        <v>8.065865568876339</v>
+        <v>6.669094349388269</v>
       </c>
       <c r="M24">
-        <v>14.74194997472627</v>
+        <v>10.72061074372346</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.53268217864763</v>
+        <v>15.37449995586556</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.9074947489101</v>
+        <v>13.39310907917642</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.04580259848189</v>
+        <v>6.853754092185368</v>
       </c>
       <c r="E25">
-        <v>17.8793157715756</v>
+        <v>10.8312927633048</v>
       </c>
       <c r="F25">
-        <v>33.86809305019259</v>
+        <v>21.88770978544054</v>
       </c>
       <c r="G25">
-        <v>34.14682523385673</v>
+        <v>23.77058422060997</v>
       </c>
       <c r="H25">
-        <v>15.74911866719374</v>
+        <v>9.419216457926973</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.59215523403276</v>
+        <v>7.793113582020189</v>
       </c>
       <c r="K25">
-        <v>10.14717560363419</v>
+        <v>14.05090262462392</v>
       </c>
       <c r="L25">
-        <v>7.983554284177336</v>
+        <v>6.207874463725825</v>
       </c>
       <c r="M25">
-        <v>14.65556821992005</v>
+        <v>10.11524831144327</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.66914319157414</v>
+        <v>15.46714281123889</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.57014212326657</v>
+        <v>15.15800841900663</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.788660648384122</v>
+        <v>3.036844333518367</v>
       </c>
       <c r="E2">
-        <v>11.00687574003891</v>
+        <v>13.1527958752244</v>
       </c>
       <c r="F2">
-        <v>21.89186266990655</v>
+        <v>18.72781821123722</v>
       </c>
       <c r="G2">
-        <v>23.63391025344466</v>
+        <v>25.59943788259279</v>
       </c>
       <c r="H2">
-        <v>9.530499980327429</v>
+        <v>3.233393251206971</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.691909003022618</v>
       </c>
       <c r="J2">
-        <v>7.899573943228077</v>
+        <v>7.632117354905492</v>
       </c>
       <c r="K2">
-        <v>13.24331338865017</v>
+        <v>35.47816820610395</v>
       </c>
       <c r="L2">
-        <v>5.844765928896066</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.654042461707519</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.57663639524464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>35.73846490539209</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.74980644939021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.98859304437035</v>
+        <v>14.17804148643798</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.749936050435605</v>
+        <v>2.889203450244764</v>
       </c>
       <c r="E3">
-        <v>11.13286652448957</v>
+        <v>12.98114520004918</v>
       </c>
       <c r="F3">
-        <v>21.92974632937422</v>
+        <v>17.63631492076965</v>
       </c>
       <c r="G3">
-        <v>23.59214038965492</v>
+        <v>23.83731114926806</v>
       </c>
       <c r="H3">
-        <v>9.616126172403687</v>
+        <v>2.966050081421289</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.801228631209631</v>
       </c>
       <c r="J3">
-        <v>7.974632349483129</v>
+        <v>7.41063971495208</v>
       </c>
       <c r="K3">
-        <v>12.66537534692378</v>
+        <v>33.50743037777825</v>
       </c>
       <c r="L3">
-        <v>5.584677107420283</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.333575532853425</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.67451188102417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>33.4314414246711</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.06724224207762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.62090547460661</v>
+        <v>13.53792918649066</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.728810488409819</v>
+        <v>2.79420495317662</v>
       </c>
       <c r="E4">
-        <v>11.21367742656934</v>
+        <v>12.87388271876161</v>
       </c>
       <c r="F4">
-        <v>21.96943454753526</v>
+        <v>16.94411964783322</v>
       </c>
       <c r="G4">
-        <v>23.59023659086929</v>
+        <v>22.73806380593997</v>
       </c>
       <c r="H4">
-        <v>9.673518053566832</v>
+        <v>2.797731010722292</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.869893094665148</v>
       </c>
       <c r="J4">
-        <v>8.022194905939767</v>
+        <v>7.276544833158881</v>
       </c>
       <c r="K4">
-        <v>12.29610375072134</v>
+        <v>32.26113584522302</v>
       </c>
       <c r="L4">
-        <v>5.418367078710714</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.133595439691476</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.74561691593756</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>31.93682114488549</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.64016990161859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.46860248359626</v>
+        <v>13.26206676151774</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.720866670080119</v>
+        <v>2.754963842086865</v>
       </c>
       <c r="E5">
-        <v>11.24747675655342</v>
+        <v>12.83743836784117</v>
       </c>
       <c r="F5">
-        <v>21.9896082706838</v>
+        <v>16.65335765573973</v>
       </c>
       <c r="G5">
-        <v>23.59522275626018</v>
+        <v>22.27252291512786</v>
       </c>
       <c r="H5">
-        <v>9.698086301654076</v>
+        <v>2.728663436067359</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.900380679531402</v>
       </c>
       <c r="J5">
-        <v>8.041954040881205</v>
+        <v>7.22113479154731</v>
       </c>
       <c r="K5">
-        <v>12.14212315059145</v>
+        <v>31.79016110174872</v>
       </c>
       <c r="L5">
-        <v>5.348984897782668</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.051408726243594</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.77726485174553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>31.32951939347744</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.4613634346175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.44317014535515</v>
+        <v>13.2091632986307</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.719587700250808</v>
+        <v>2.749046867271222</v>
       </c>
       <c r="E6">
-        <v>11.25314155985622</v>
+        <v>12.84077424629978</v>
       </c>
       <c r="F6">
-        <v>21.9931958930576</v>
+        <v>16.60055533639372</v>
       </c>
       <c r="G6">
-        <v>23.59639246997064</v>
+        <v>22.18717545759285</v>
       </c>
       <c r="H6">
-        <v>9.702236281079404</v>
+        <v>2.717865134234658</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.908185365140763</v>
       </c>
       <c r="J6">
-        <v>8.045257965518189</v>
+        <v>7.210375118153644</v>
       </c>
       <c r="K6">
-        <v>12.11634749855348</v>
+        <v>31.76719991398307</v>
       </c>
       <c r="L6">
-        <v>5.337368579276751</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.037723349935803</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.78267859410481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>31.25370132512429</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.42790178065258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.61886116500179</v>
+        <v>13.5169093480298</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.728700665673563</v>
+        <v>2.795461149664911</v>
       </c>
       <c r="E7">
-        <v>11.21412974021472</v>
+        <v>12.89902487081593</v>
       </c>
       <c r="F7">
-        <v>21.9696905925186</v>
+        <v>16.92899691237544</v>
       </c>
       <c r="G7">
-        <v>23.59028078710874</v>
+        <v>22.71233061879045</v>
       </c>
       <c r="H7">
-        <v>9.673844648648663</v>
+        <v>2.798826951380529</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.877403609444045</v>
       </c>
       <c r="J7">
-        <v>8.022459850556608</v>
+        <v>7.271504546545591</v>
       </c>
       <c r="K7">
-        <v>12.29404110294363</v>
+        <v>32.40431202847117</v>
       </c>
       <c r="L7">
-        <v>5.417437805489768</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.132489689363986</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.74603303705434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>31.99850974845187</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.6279529587867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.37193891956079</v>
+        <v>14.806975750777</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.774757353690276</v>
+        <v>2.989078123165533</v>
       </c>
       <c r="E8">
-        <v>11.04960091858445</v>
+        <v>13.12777367664432</v>
       </c>
       <c r="F8">
-        <v>21.90143729902771</v>
+        <v>18.34259312815667</v>
       </c>
       <c r="G8">
-        <v>23.61445740962124</v>
+        <v>24.97343399835084</v>
       </c>
       <c r="H8">
-        <v>9.559005100883752</v>
+        <v>3.144800350304253</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.738019383581995</v>
       </c>
       <c r="J8">
-        <v>7.925151186358493</v>
+        <v>7.54999798505226</v>
       </c>
       <c r="K8">
-        <v>13.0471013215173</v>
+        <v>34.99229081180899</v>
       </c>
       <c r="L8">
-        <v>5.756489645321773</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>9.544277839652532</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.60804013220144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>35.04415212148947</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.50421816560625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.75709282891686</v>
+        <v>17.06108261510374</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.886145848346841</v>
+        <v>3.330537372407556</v>
       </c>
       <c r="E9">
-        <v>10.75435462635953</v>
+        <v>13.51188836869485</v>
       </c>
       <c r="F9">
-        <v>21.90370320239851</v>
+        <v>20.94793002087389</v>
       </c>
       <c r="G9">
-        <v>23.8590795220005</v>
+        <v>29.14510362685004</v>
       </c>
       <c r="H9">
-        <v>9.37349525985071</v>
+        <v>3.787768403105822</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.465412281240902</v>
       </c>
       <c r="J9">
-        <v>7.745771765384853</v>
+        <v>8.115758063762851</v>
       </c>
       <c r="K9">
-        <v>14.40494743542666</v>
+        <v>39.51913622018569</v>
       </c>
       <c r="L9">
-        <v>6.366962010951005</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.32177956632812</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.42924089370681</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>40.28859590042021</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15.16652393530133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.71081865754051</v>
+        <v>18.58140632707709</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.980817153980443</v>
+        <v>3.581392987217864</v>
       </c>
       <c r="E10">
-        <v>10.55416553015359</v>
+        <v>14.21665023170863</v>
       </c>
       <c r="F10">
-        <v>21.99609421580272</v>
+        <v>22.80938728806463</v>
       </c>
       <c r="G10">
-        <v>24.17024514885057</v>
+        <v>31.76342041626907</v>
       </c>
       <c r="H10">
-        <v>9.263565821720173</v>
+        <v>4.221509591227722</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.274778767668502</v>
       </c>
       <c r="J10">
-        <v>7.620561603203335</v>
+        <v>8.490887955102409</v>
       </c>
       <c r="K10">
-        <v>15.32524283239767</v>
+        <v>42.91388292079946</v>
       </c>
       <c r="L10">
-        <v>6.780273331962031</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>10.86937130732101</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.36014527556577</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>43.57722920096299</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16.40614523606886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.12956100342854</v>
+        <v>19.67039182514026</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.026652531039125</v>
+        <v>3.879442392588087</v>
       </c>
       <c r="E11">
-        <v>10.46674343460339</v>
+        <v>18.93123744286811</v>
       </c>
       <c r="F11">
-        <v>22.05943126119728</v>
+        <v>22.71636046309221</v>
       </c>
       <c r="G11">
-        <v>24.34246983208372</v>
+        <v>31.32552095390486</v>
       </c>
       <c r="H11">
-        <v>9.219796986179398</v>
+        <v>4.705620697030407</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.19057316033388</v>
       </c>
       <c r="J11">
-        <v>7.564938319407889</v>
+        <v>8.282059764025595</v>
       </c>
       <c r="K11">
-        <v>15.72640404744044</v>
+        <v>46.38935054921365</v>
       </c>
       <c r="L11">
-        <v>6.960358580916126</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.11242423646122</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.34364086960255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>43.19948566477863</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>16.21144695061642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.28587641431398</v>
+        <v>20.30776796195111</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.044404383156564</v>
+        <v>4.080628773824698</v>
       </c>
       <c r="E12">
-        <v>10.43416567023705</v>
+        <v>23.26467862898237</v>
       </c>
       <c r="F12">
-        <v>22.08660618518014</v>
+        <v>22.26644701796656</v>
       </c>
       <c r="G12">
-        <v>24.41225127941564</v>
+        <v>30.4467517389196</v>
       </c>
       <c r="H12">
-        <v>9.204166318148383</v>
+        <v>5.550860369704985</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.143945389110391</v>
       </c>
       <c r="J12">
-        <v>7.544059584794153</v>
+        <v>8.024097312167404</v>
       </c>
       <c r="K12">
-        <v>15.87575534013516</v>
+        <v>48.46223135811738</v>
       </c>
       <c r="L12">
-        <v>7.027393835439105</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.20352758418018</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.33965675922933</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>42.10481808681204</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>15.782848850138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.25231240291176</v>
+        <v>20.63798032053512</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.040563693859804</v>
+        <v>4.226515233485258</v>
       </c>
       <c r="E13">
-        <v>10.44115837744816</v>
+        <v>27.45232281996383</v>
       </c>
       <c r="F13">
-        <v>22.08060970626394</v>
+        <v>21.4809779697689</v>
       </c>
       <c r="G13">
-        <v>24.39701735221428</v>
+        <v>29.1142830857055</v>
       </c>
       <c r="H13">
-        <v>9.207489921452812</v>
+        <v>6.569701604300761</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.13485946575772</v>
       </c>
       <c r="J13">
-        <v>7.548548106050895</v>
+        <v>7.699586992282226</v>
       </c>
       <c r="K13">
-        <v>15.84370431845177</v>
+        <v>49.82299325050102</v>
       </c>
       <c r="L13">
-        <v>7.013008390107274</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.18394940444076</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.3404121193149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>40.4383758440607</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>15.11844799035395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.14246672308856</v>
+        <v>20.73188934362883</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.028105090754982</v>
+        <v>4.305912614044613</v>
       </c>
       <c r="E14">
-        <v>10.46405265918315</v>
+        <v>30.36061544099962</v>
       </c>
       <c r="F14">
-        <v>22.06160230450668</v>
+        <v>20.76460548095582</v>
       </c>
       <c r="G14">
-        <v>24.34811850889245</v>
+        <v>27.95151433964626</v>
       </c>
       <c r="H14">
-        <v>9.218491852843693</v>
+        <v>7.35658751117279</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.147529421133005</v>
       </c>
       <c r="J14">
-        <v>7.56321695760375</v>
+        <v>7.4377985988413</v>
       </c>
       <c r="K14">
-        <v>15.73874279015856</v>
+        <v>50.50899419792049</v>
       </c>
       <c r="L14">
-        <v>6.965896931135937</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.11993845662358</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.34326699543464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>39.00238403451105</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>14.53487271078498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.07488754842169</v>
+        <v>20.68378297651336</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.020525171253649</v>
+        <v>4.314030206103726</v>
       </c>
       <c r="E15">
-        <v>10.47814481018488</v>
+        <v>31.01971912539152</v>
       </c>
       <c r="F15">
-        <v>22.0503789141531</v>
+        <v>20.51054136817102</v>
       </c>
       <c r="G15">
-        <v>24.31876516105466</v>
+        <v>27.55746627735358</v>
       </c>
       <c r="H15">
-        <v>9.225355174079468</v>
+        <v>7.535572194149112</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.162414715282495</v>
       </c>
       <c r="J15">
-        <v>7.572225865937916</v>
+        <v>7.358769318273664</v>
       </c>
       <c r="K15">
-        <v>15.67411631038917</v>
+        <v>50.57339271500594</v>
       </c>
       <c r="L15">
-        <v>6.93688838335062</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>11.08060627762651</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.34531432976994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>38.54721437886285</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>14.33509631739333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.68314152194069</v>
+        <v>20.02065398728465</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.977877164633663</v>
+        <v>4.192259807792215</v>
       </c>
       <c r="E16">
-        <v>10.5599523504706</v>
+        <v>30.08891242344928</v>
       </c>
       <c r="F16">
-        <v>21.99239466397381</v>
+        <v>19.80395064507326</v>
       </c>
       <c r="G16">
-        <v>24.15962050713836</v>
+        <v>26.59004526692891</v>
       </c>
       <c r="H16">
-        <v>9.266555666986056</v>
+        <v>7.236953818108565</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.251464047546814</v>
       </c>
       <c r="J16">
-        <v>7.624222959931264</v>
+        <v>7.243037934621882</v>
       </c>
       <c r="K16">
-        <v>15.29867001653046</v>
+        <v>49.08783528978927</v>
       </c>
       <c r="L16">
-        <v>6.768343031178517</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>10.85335967910614</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.36153439775488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>37.43952181322</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>13.82642775299835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.43888487245279</v>
+        <v>19.44533401144043</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.952421122145358</v>
+        <v>4.052510497881704</v>
       </c>
       <c r="E17">
-        <v>10.61107405107062</v>
+        <v>27.72641255410819</v>
       </c>
       <c r="F17">
-        <v>21.96237190574997</v>
+        <v>19.65812245920689</v>
       </c>
       <c r="G17">
-        <v>24.06996025967679</v>
+        <v>26.4951891966993</v>
       </c>
       <c r="H17">
-        <v>9.293460894348941</v>
+        <v>6.538917776274747</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.313498022122964</v>
       </c>
       <c r="J17">
-        <v>7.656458345073842</v>
+        <v>7.299478678845903</v>
       </c>
       <c r="K17">
-        <v>15.06383152305221</v>
+        <v>47.54491207100238</v>
       </c>
       <c r="L17">
-        <v>6.662899590345655</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.71235225334625</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.37539230377032</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>37.3809310693463</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13.76006303775408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.29697608344093</v>
+        <v>18.9025426749547</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.938040338415945</v>
+        <v>3.882129755595643</v>
       </c>
       <c r="E18">
-        <v>10.64082076026087</v>
+        <v>23.91217764398426</v>
       </c>
       <c r="F18">
-        <v>21.94710187669364</v>
+        <v>19.99910706873065</v>
       </c>
       <c r="G18">
-        <v>24.02126903694177</v>
+        <v>27.17562392410595</v>
       </c>
       <c r="H18">
-        <v>9.30952031895708</v>
+        <v>5.49935921336554</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.350249712549737</v>
       </c>
       <c r="J18">
-        <v>7.675125449597096</v>
+        <v>7.509881061578408</v>
       </c>
       <c r="K18">
-        <v>14.92711474109709</v>
+        <v>45.68793591027362</v>
       </c>
       <c r="L18">
-        <v>6.601505476398676</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.63068244836306</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.38476078126921</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>38.18434899159542</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14.08657639744119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.24868724569138</v>
+        <v>18.41155557288803</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.933216141385796</v>
+        <v>3.706093232903295</v>
       </c>
       <c r="E19">
-        <v>10.6509512931909</v>
+        <v>19.53783011272609</v>
       </c>
       <c r="F19">
-        <v>21.94227099329605</v>
+        <v>20.6882886426004</v>
       </c>
       <c r="G19">
-        <v>24.00527258879709</v>
+        <v>28.3989676950578</v>
       </c>
       <c r="H19">
-        <v>9.315056738757955</v>
+        <v>4.504902677356488</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.376632387563736</v>
       </c>
       <c r="J19">
-        <v>7.681467700367399</v>
+        <v>7.815405177620649</v>
       </c>
       <c r="K19">
-        <v>14.88054401238633</v>
+        <v>43.98375196690805</v>
       </c>
       <c r="L19">
-        <v>6.580591029633992</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.60293538436092</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.38816925958935</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>39.70261872231372</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>14.69268930646258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.46503388726311</v>
+        <v>18.15630442189677</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.955103984518539</v>
+        <v>3.522723101808366</v>
       </c>
       <c r="E20">
-        <v>10.60559655512421</v>
+        <v>14.13231002099</v>
       </c>
       <c r="F20">
-        <v>21.96536013770519</v>
+        <v>22.296914513057</v>
       </c>
       <c r="G20">
-        <v>24.07920562742672</v>
+        <v>31.04002436195331</v>
       </c>
       <c r="H20">
-        <v>9.290535991494982</v>
+        <v>4.113609903800153</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.346829016466066</v>
       </c>
       <c r="J20">
-        <v>7.653013828665554</v>
+        <v>8.379028415270652</v>
       </c>
       <c r="K20">
-        <v>15.08900098155548</v>
+        <v>42.42579058158007</v>
       </c>
       <c r="L20">
-        <v>6.674201565007393</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.72742182444053</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.37377158481688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>42.89310169865407</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>16.02907096234025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.17479276840859</v>
+        <v>19.19433067378807</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.031753792891444</v>
+        <v>3.673171223708766</v>
       </c>
       <c r="E21">
-        <v>10.45731372150341</v>
+        <v>13.98351468517705</v>
       </c>
       <c r="F21">
-        <v>22.06709765982196</v>
+        <v>23.85706961617749</v>
       </c>
       <c r="G21">
-        <v>24.36235628418014</v>
+        <v>33.26990988717311</v>
       </c>
       <c r="H21">
-        <v>9.215234323465536</v>
+        <v>4.475686519998225</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.199666512675416</v>
       </c>
       <c r="J21">
-        <v>7.558903411440551</v>
+        <v>8.737570600462552</v>
       </c>
       <c r="K21">
-        <v>15.76964231323485</v>
+        <v>44.53937207960617</v>
       </c>
       <c r="L21">
-        <v>6.979766290575243</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.13876589148614</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.34236599725949</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>45.59606522417745</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>17.18876396660166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.62550207724314</v>
+        <v>19.883250476744</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.08414930361221</v>
+        <v>3.776704527019163</v>
       </c>
       <c r="E22">
-        <v>10.36347649654294</v>
+        <v>14.07080309332009</v>
       </c>
       <c r="F22">
-        <v>22.15224182980676</v>
+        <v>24.79803648830826</v>
       </c>
       <c r="G22">
-        <v>24.57407252136231</v>
+        <v>34.60223746520452</v>
       </c>
       <c r="H22">
-        <v>9.171544276224667</v>
+        <v>4.694884271314749</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.094836320781613</v>
       </c>
       <c r="J22">
-        <v>7.498469077256181</v>
+        <v>8.953926669574486</v>
       </c>
       <c r="K22">
-        <v>16.19954701731112</v>
+        <v>45.84602100332905</v>
       </c>
       <c r="L22">
-        <v>7.172708934122382</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.40212595081583</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.33510382902244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>47.12043794901403</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>17.88199313436144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.38617627700367</v>
+        <v>19.5329726354626</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.055975543191581</v>
+        <v>3.720211616463304</v>
       </c>
       <c r="E23">
-        <v>10.41327672924227</v>
+        <v>13.99600607977649</v>
       </c>
       <c r="F23">
-        <v>22.10505130115671</v>
+        <v>24.30724861232159</v>
       </c>
       <c r="G23">
-        <v>24.45858952872805</v>
+        <v>33.90988582259283</v>
       </c>
       <c r="H23">
-        <v>9.194340898362734</v>
+        <v>4.575481914413449</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.141877939855114</v>
       </c>
       <c r="J23">
-        <v>7.530628454902795</v>
+        <v>8.842386964469529</v>
       </c>
       <c r="K23">
-        <v>15.97147742504471</v>
+        <v>45.01704934984161</v>
       </c>
       <c r="L23">
-        <v>7.070355399161185</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.2620862408793</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.33772630919877</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>46.25387278367126</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>17.52147322311058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.45321652871554</v>
+        <v>18.11968903984645</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.95389027032194</v>
+        <v>3.50024326300856</v>
       </c>
       <c r="E24">
-        <v>10.60807182188822</v>
+        <v>13.7471529050401</v>
       </c>
       <c r="F24">
-        <v>21.9640029678498</v>
+        <v>22.37088472238835</v>
       </c>
       <c r="G24">
-        <v>24.07501691372357</v>
+        <v>31.17613611675751</v>
       </c>
       <c r="H24">
-        <v>9.291856501947402</v>
+        <v>4.122351541853899</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.336134829776798</v>
       </c>
       <c r="J24">
-        <v>7.654570674874807</v>
+        <v>8.414173692004736</v>
       </c>
       <c r="K24">
-        <v>15.07762717651577</v>
+        <v>42.00348660430642</v>
       </c>
       <c r="L24">
-        <v>6.669094349388269</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.72061074372346</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.37449995586556</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>42.92749375714083</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>16.09660907452786</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.39310907917642</v>
+        <v>16.45765535778531</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.853754092185368</v>
+        <v>3.244845713606607</v>
       </c>
       <c r="E25">
-        <v>10.8312927633048</v>
+        <v>13.4561759052254</v>
       </c>
       <c r="F25">
-        <v>21.88770978544054</v>
+        <v>20.24753073467009</v>
       </c>
       <c r="G25">
-        <v>23.77058422060997</v>
+        <v>28.03435905909108</v>
       </c>
       <c r="H25">
-        <v>9.419216457926973</v>
+        <v>3.620894014496489</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.550212704969669</v>
       </c>
       <c r="J25">
-        <v>7.793113582020189</v>
+        <v>7.954871413029194</v>
       </c>
       <c r="K25">
-        <v>14.05090262462392</v>
+        <v>38.5625440927971</v>
       </c>
       <c r="L25">
-        <v>6.207874463725825</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.11524831144327</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.46714281123889</v>
+        <v>39.03998376429126</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.7108090689898</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.15800841900663</v>
+        <v>16.41102588573683</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.036844333518367</v>
+        <v>2.957721377669738</v>
       </c>
       <c r="E2">
-        <v>13.1527958752244</v>
+        <v>11.67567629239163</v>
       </c>
       <c r="F2">
-        <v>18.72781821123722</v>
+        <v>19.5867787636783</v>
       </c>
       <c r="G2">
-        <v>25.59943788259279</v>
+        <v>27.11888749942155</v>
       </c>
       <c r="H2">
-        <v>3.233393251206971</v>
+        <v>3.063777722455402</v>
       </c>
       <c r="I2">
-        <v>3.691909003022618</v>
+        <v>3.425135753211233</v>
       </c>
       <c r="J2">
-        <v>7.632117354905492</v>
+        <v>8.806781170813688</v>
       </c>
       <c r="K2">
-        <v>35.47816820610395</v>
+        <v>24.55122789335709</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>17.98957592036433</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18.64159472956974</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>35.73846490539209</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.74980644939021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>30.73618587795694</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.55149643256092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.17804148643798</v>
+        <v>15.37474643739453</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.889203450244764</v>
+        <v>2.818408810285886</v>
       </c>
       <c r="E3">
-        <v>12.98114520004918</v>
+        <v>11.65804886392946</v>
       </c>
       <c r="F3">
-        <v>17.63631492076965</v>
+        <v>18.470360919902</v>
       </c>
       <c r="G3">
-        <v>23.83731114926806</v>
+        <v>25.22980076387333</v>
       </c>
       <c r="H3">
-        <v>2.966050081421289</v>
+        <v>2.819335962067523</v>
       </c>
       <c r="I3">
-        <v>3.801228631209631</v>
+        <v>3.507402039684228</v>
       </c>
       <c r="J3">
-        <v>7.41063971495208</v>
+        <v>8.577547302846593</v>
       </c>
       <c r="K3">
-        <v>33.50743037777825</v>
+        <v>23.3076450042776</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.75609747516321</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>17.97644702603515</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>33.4314414246711</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.06724224207762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>28.69205950388892</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.84062369164739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.53792918649066</v>
+        <v>14.69865281937353</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.79420495317662</v>
+        <v>2.72890245436179</v>
       </c>
       <c r="E4">
-        <v>12.87388271876161</v>
+        <v>11.6464133505835</v>
       </c>
       <c r="F4">
-        <v>16.94411964783322</v>
+        <v>17.76073005976705</v>
       </c>
       <c r="G4">
-        <v>22.73806380593997</v>
+        <v>24.01169982138306</v>
       </c>
       <c r="H4">
-        <v>2.797731010722292</v>
+        <v>2.665028481868348</v>
       </c>
       <c r="I4">
-        <v>3.869893094665148</v>
+        <v>3.559548577585938</v>
       </c>
       <c r="J4">
-        <v>7.276544833158881</v>
+        <v>8.435963309957128</v>
       </c>
       <c r="K4">
-        <v>32.26113584522302</v>
+        <v>22.53364300256839</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.99259116837394</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>17.56305103002032</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>31.93682114488549</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.64016990161859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>27.36623755421762</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.39374511695402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.26206676151774</v>
+        <v>14.40927100051596</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.754963842086865</v>
+        <v>2.691822762898278</v>
       </c>
       <c r="E5">
-        <v>12.83743836784117</v>
+        <v>11.64174882189825</v>
       </c>
       <c r="F5">
-        <v>16.65335765573973</v>
+        <v>17.4632630147657</v>
       </c>
       <c r="G5">
-        <v>22.27252291512786</v>
+        <v>23.49639962674132</v>
       </c>
       <c r="H5">
-        <v>2.728663436067359</v>
+        <v>2.601380156298899</v>
       </c>
       <c r="I5">
-        <v>3.900380679531402</v>
+        <v>3.584016558302521</v>
       </c>
       <c r="J5">
-        <v>7.22113479154731</v>
+        <v>8.377245473397947</v>
       </c>
       <c r="K5">
-        <v>31.79016110174872</v>
+        <v>22.24519393667871</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.70132994827609</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>17.41666941369224</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>31.32951939347744</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.4613634346175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>26.82363101236848</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.20708866580586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.2091632986307</v>
+        <v>14.35590728448283</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.749046867271222</v>
+        <v>2.686060342150058</v>
       </c>
       <c r="E6">
-        <v>12.84077424629978</v>
+        <v>11.64132107651044</v>
       </c>
       <c r="F6">
-        <v>16.60055533639372</v>
+        <v>17.41047491076889</v>
       </c>
       <c r="G6">
-        <v>22.18717545759285</v>
+        <v>23.4047089162558</v>
       </c>
       <c r="H6">
-        <v>2.717865134234658</v>
+        <v>2.591134073802932</v>
       </c>
       <c r="I6">
-        <v>3.908185365140763</v>
+        <v>3.591715183846094</v>
       </c>
       <c r="J6">
-        <v>7.210375118153644</v>
+        <v>8.366421636277403</v>
       </c>
       <c r="K6">
-        <v>31.76719991398307</v>
+        <v>22.23273279353752</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.67786637352854</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>17.4207146308643</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>31.25370132512429</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.42790178065258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>26.75136039994292</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.17331233830149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.5169093480298</v>
+        <v>14.68383756647176</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.795461149664911</v>
+        <v>2.733451063251533</v>
       </c>
       <c r="E7">
-        <v>12.89902487081593</v>
+        <v>11.64521350434774</v>
       </c>
       <c r="F7">
-        <v>16.92899691237544</v>
+        <v>17.72740482036906</v>
       </c>
       <c r="G7">
-        <v>22.71233061879045</v>
+        <v>24.09611733793948</v>
       </c>
       <c r="H7">
-        <v>2.798826951380529</v>
+        <v>2.664670176688344</v>
       </c>
       <c r="I7">
-        <v>3.877403609444045</v>
+        <v>3.569342856363147</v>
       </c>
       <c r="J7">
-        <v>7.271504546545591</v>
+        <v>8.37071481977927</v>
       </c>
       <c r="K7">
-        <v>32.40431202847117</v>
+        <v>22.62869815668566</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.05856541945402</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>17.63974426219104</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>31.99850974845187</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.6279529587867</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>27.40294539992158</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.36616147280702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.806975750777</v>
+        <v>16.05159954120935</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.989078123165533</v>
+        <v>2.924142460891897</v>
       </c>
       <c r="E8">
-        <v>13.12777367664432</v>
+        <v>11.66482390955592</v>
       </c>
       <c r="F8">
-        <v>18.34259312815667</v>
+        <v>19.13137357515945</v>
       </c>
       <c r="G8">
-        <v>24.97343399835084</v>
+        <v>26.78263830443546</v>
       </c>
       <c r="H8">
-        <v>3.144800350304253</v>
+        <v>2.980000824401593</v>
       </c>
       <c r="I8">
-        <v>3.738019383581995</v>
+        <v>3.464923276556253</v>
       </c>
       <c r="J8">
-        <v>7.54999798505226</v>
+        <v>8.526129694249143</v>
       </c>
       <c r="K8">
-        <v>34.99229081180899</v>
+        <v>24.25627656343243</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>17.66105617260288</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>18.51619569703309</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>35.04415212148947</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.50421816560625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>30.08771448229226</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.24352342382708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.06108261510374</v>
+        <v>18.43259759130755</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.330537372407556</v>
+        <v>3.249624692583257</v>
       </c>
       <c r="E9">
-        <v>13.51188836869485</v>
+        <v>11.70049182229392</v>
       </c>
       <c r="F9">
-        <v>20.94793002087389</v>
+        <v>21.77472267957172</v>
       </c>
       <c r="G9">
-        <v>29.14510362685004</v>
+        <v>31.22606116541299</v>
       </c>
       <c r="H9">
-        <v>3.787768403105822</v>
+        <v>3.566033269995157</v>
       </c>
       <c r="I9">
-        <v>3.465412281240902</v>
+        <v>3.257876615868474</v>
       </c>
       <c r="J9">
-        <v>8.115758063762851</v>
+        <v>9.052556799666693</v>
       </c>
       <c r="K9">
-        <v>39.51913622018569</v>
+        <v>27.17043654623962</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>20.58856338261843</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>20.05597150589429</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>40.28859590042021</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.16652393530133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>34.73602268747978</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.95140914022392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.58140632707709</v>
+        <v>20.05756667993036</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.581392987217864</v>
+        <v>3.507032910482185</v>
       </c>
       <c r="E10">
-        <v>14.21665023170863</v>
+        <v>11.87915836175723</v>
       </c>
       <c r="F10">
-        <v>22.80938728806463</v>
+        <v>23.4411492266352</v>
       </c>
       <c r="G10">
-        <v>31.76342041626907</v>
+        <v>34.48264638644007</v>
       </c>
       <c r="H10">
-        <v>4.221509591227722</v>
+        <v>3.952461837960318</v>
       </c>
       <c r="I10">
-        <v>3.274778767668502</v>
+        <v>3.11834007712583</v>
       </c>
       <c r="J10">
-        <v>8.490887955102409</v>
+        <v>9.076055525907742</v>
       </c>
       <c r="K10">
-        <v>42.91388292079946</v>
+        <v>29.4098669003594</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>22.78189770841216</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>21.29719175067778</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>43.57722920096299</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16.40614523606886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>37.55316217966011</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>16.96531155639757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.67039182514026</v>
+        <v>21.28570902908869</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.879442392588087</v>
+        <v>3.825940630876406</v>
       </c>
       <c r="E11">
-        <v>18.93123744286811</v>
+        <v>14.61484965025453</v>
       </c>
       <c r="F11">
-        <v>22.71636046309221</v>
+        <v>23.1847381032776</v>
       </c>
       <c r="G11">
-        <v>31.32552095390486</v>
+        <v>35.15533076278582</v>
       </c>
       <c r="H11">
-        <v>4.705620697030407</v>
+        <v>4.427243571318496</v>
       </c>
       <c r="I11">
-        <v>3.19057316033388</v>
+        <v>3.068761888486406</v>
       </c>
       <c r="J11">
-        <v>8.282059764025595</v>
+        <v>8.22526618109605</v>
       </c>
       <c r="K11">
-        <v>46.38935054921365</v>
+        <v>31.67654099699837</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>24.69672657268282</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>22.82512248129423</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>43.19948566477863</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.21144695061642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>36.63469231335269</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>16.57936878664586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.30776796195111</v>
+        <v>22.00695044048066</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.080628773824698</v>
+        <v>4.033570613873724</v>
       </c>
       <c r="E12">
-        <v>23.26467862898237</v>
+        <v>17.94991221288971</v>
       </c>
       <c r="F12">
-        <v>22.26644701796656</v>
+        <v>22.66575410579278</v>
       </c>
       <c r="G12">
-        <v>30.4467517389196</v>
+        <v>34.80446225462983</v>
       </c>
       <c r="H12">
-        <v>5.550860369704985</v>
+        <v>5.301578581647196</v>
       </c>
       <c r="I12">
-        <v>3.143945389110391</v>
+        <v>3.037263842526513</v>
       </c>
       <c r="J12">
-        <v>8.024097312167404</v>
+        <v>7.699652536193648</v>
       </c>
       <c r="K12">
-        <v>48.46223135811738</v>
+        <v>33.00819133716315</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>25.77280025909133</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>23.76569392791792</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>42.10481808681204</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15.782848850138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>35.21868674230032</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>16.0844370840964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.63798032053512</v>
+        <v>22.38953376788929</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.226515233485258</v>
+        <v>4.164279619922785</v>
       </c>
       <c r="E13">
-        <v>27.45232281996383</v>
+        <v>21.53056319288021</v>
       </c>
       <c r="F13">
-        <v>21.4809779697689</v>
+        <v>21.92303589731107</v>
       </c>
       <c r="G13">
-        <v>29.1142830857055</v>
+        <v>33.41754697540911</v>
       </c>
       <c r="H13">
-        <v>6.569701604300761</v>
+        <v>6.357882769167079</v>
       </c>
       <c r="I13">
-        <v>3.13485946575772</v>
+        <v>3.03286811654199</v>
       </c>
       <c r="J13">
-        <v>7.699586992282226</v>
+        <v>7.500209629239693</v>
       </c>
       <c r="K13">
-        <v>49.82299325050102</v>
+        <v>33.84908393128735</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>26.37949937248743</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>24.42394698168851</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>40.4383758440607</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.11844799035395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>33.35885416476034</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>15.45042035683647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.73188934362883</v>
+        <v>22.50791987052665</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.305912614044613</v>
+        <v>4.222672758554183</v>
       </c>
       <c r="E14">
-        <v>30.36061544099962</v>
+        <v>24.1411444816305</v>
       </c>
       <c r="F14">
-        <v>20.76460548095582</v>
+        <v>21.2867405408009</v>
       </c>
       <c r="G14">
-        <v>27.95151433964626</v>
+        <v>31.96322969653729</v>
       </c>
       <c r="H14">
-        <v>7.35658751117279</v>
+        <v>7.170038339086926</v>
       </c>
       <c r="I14">
-        <v>3.147529421133005</v>
+        <v>3.044927945958441</v>
       </c>
       <c r="J14">
-        <v>7.4377985988413</v>
+        <v>7.4950150634327</v>
       </c>
       <c r="K14">
-        <v>50.50899419792049</v>
+        <v>34.25110185445871</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>26.61762040295009</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>24.78461714171939</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>39.00238403451105</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.53487271078498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>31.83720049967035</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>14.93080082955007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.68378297651336</v>
+        <v>22.46090426224655</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.314030206103726</v>
+        <v>4.221181173984307</v>
       </c>
       <c r="E15">
-        <v>31.01971912539152</v>
+        <v>24.75362073399136</v>
       </c>
       <c r="F15">
-        <v>20.51054136817102</v>
+        <v>21.07463331497935</v>
       </c>
       <c r="G15">
-        <v>27.55746627735358</v>
+        <v>31.38954473039849</v>
       </c>
       <c r="H15">
-        <v>7.535572194149112</v>
+        <v>7.355948598499181</v>
       </c>
       <c r="I15">
-        <v>3.162414715282495</v>
+        <v>3.058420326235864</v>
       </c>
       <c r="J15">
-        <v>7.358769318273664</v>
+        <v>7.550954856165346</v>
       </c>
       <c r="K15">
-        <v>50.57339271500594</v>
+        <v>34.27789065361253</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>26.59995765097614</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>24.83833150704279</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>38.54721437886285</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.33509631739333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>31.3811362564193</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>14.76595921359747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.02065398728465</v>
+        <v>21.73730312830532</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.192259807792215</v>
+        <v>4.065448481887871</v>
       </c>
       <c r="E16">
-        <v>30.08891242344928</v>
+        <v>24.07098561340992</v>
       </c>
       <c r="F16">
-        <v>19.80395064507326</v>
+        <v>20.54911548319874</v>
       </c>
       <c r="G16">
-        <v>26.59004526692891</v>
+        <v>29.49620080504593</v>
       </c>
       <c r="H16">
-        <v>7.236953818108565</v>
+        <v>7.07206540533812</v>
       </c>
       <c r="I16">
-        <v>3.251464047546814</v>
+        <v>3.125771108806488</v>
       </c>
       <c r="J16">
-        <v>7.243037934621882</v>
+        <v>8.034687771026224</v>
       </c>
       <c r="K16">
-        <v>49.08783528978927</v>
+        <v>33.26261803152978</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>25.62610074020414</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>24.25764304869503</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>37.43952181322</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.82642775299835</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>30.51999823901572</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>14.41592543262712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.44533401144043</v>
+        <v>21.10229831518966</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.052510497881704</v>
+        <v>3.917309538405288</v>
       </c>
       <c r="E17">
-        <v>27.72641255410819</v>
+        <v>22.05942112075148</v>
       </c>
       <c r="F17">
-        <v>19.65812245920689</v>
+        <v>20.47306803071863</v>
       </c>
       <c r="G17">
-        <v>26.4951891966993</v>
+        <v>28.9560211672067</v>
       </c>
       <c r="H17">
-        <v>6.538917776274747</v>
+        <v>6.372581026440086</v>
       </c>
       <c r="I17">
-        <v>3.313498022122964</v>
+        <v>3.171636622523176</v>
       </c>
       <c r="J17">
-        <v>7.299478678845903</v>
+        <v>8.336386132146737</v>
       </c>
       <c r="K17">
-        <v>47.54491207100238</v>
+        <v>32.2534638433163</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>24.73867203703096</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>23.60904022584864</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>37.3809310693463</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.76006303775408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>30.69513367846988</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.48030898166545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.9025426749547</v>
+        <v>20.48927991766081</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.882129755595643</v>
+        <v>3.752661100598235</v>
       </c>
       <c r="E18">
-        <v>23.91217764398426</v>
+        <v>18.81536332828369</v>
       </c>
       <c r="F18">
-        <v>19.99910706873065</v>
+        <v>20.83240100696182</v>
       </c>
       <c r="G18">
-        <v>27.17562392410595</v>
+        <v>29.39565642186054</v>
       </c>
       <c r="H18">
-        <v>5.49935921336554</v>
+        <v>5.314887063955111</v>
       </c>
       <c r="I18">
-        <v>3.350249712549737</v>
+        <v>3.19297062357373</v>
       </c>
       <c r="J18">
-        <v>7.509881061578408</v>
+        <v>8.626320268410998</v>
       </c>
       <c r="K18">
-        <v>45.68793591027362</v>
+        <v>31.06790238562647</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>23.77843546653489</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>22.77381550503619</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>38.18434899159542</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.08657639744119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>31.7692538883725</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.89411097029502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.41155557288803</v>
+        <v>19.93338348668639</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.706093232903295</v>
+        <v>3.588964781959925</v>
       </c>
       <c r="E19">
-        <v>19.53783011272609</v>
+        <v>15.29226233496939</v>
       </c>
       <c r="F19">
-        <v>20.6882886426004</v>
+        <v>21.52536691434912</v>
       </c>
       <c r="G19">
-        <v>28.3989676950578</v>
+        <v>30.50066999915896</v>
       </c>
       <c r="H19">
-        <v>4.504902677356488</v>
+        <v>4.285458927881374</v>
       </c>
       <c r="I19">
-        <v>3.376632387563736</v>
+        <v>3.211365262879077</v>
       </c>
       <c r="J19">
-        <v>7.815405177620649</v>
+        <v>8.924540795681052</v>
       </c>
       <c r="K19">
-        <v>43.98375196690805</v>
+        <v>30.00747607507974</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>22.9647532558447</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>21.98621388048373</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>39.70261872231372</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.69268930646258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>33.53914058068986</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>15.52521942779493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.15630442189677</v>
+        <v>19.61157365747921</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.522723101808366</v>
+        <v>3.43359646314807</v>
       </c>
       <c r="E20">
-        <v>14.13231002099</v>
+        <v>11.85870295987256</v>
       </c>
       <c r="F20">
-        <v>22.296914513057</v>
+        <v>23.01533157718197</v>
       </c>
       <c r="G20">
-        <v>31.04002436195331</v>
+        <v>33.32835591393368</v>
       </c>
       <c r="H20">
-        <v>4.113609903800153</v>
+        <v>3.855608091246487</v>
       </c>
       <c r="I20">
-        <v>3.346829016466066</v>
+        <v>3.18479754924731</v>
       </c>
       <c r="J20">
-        <v>8.379028415270652</v>
+        <v>9.256292981458882</v>
       </c>
       <c r="K20">
-        <v>42.42579058158007</v>
+        <v>29.08331448597991</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>22.40217866560121</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>21.16920472841872</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>42.89310169865407</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16.02907096234025</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>36.95913510730075</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>16.73390567013085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.19433067378807</v>
+        <v>20.74002783051066</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.673171223708766</v>
+        <v>3.651791199451196</v>
       </c>
       <c r="E21">
-        <v>13.98351468517705</v>
+        <v>11.69300665530709</v>
       </c>
       <c r="F21">
-        <v>23.85706961617749</v>
+        <v>24.20445822373137</v>
       </c>
       <c r="G21">
-        <v>33.26990988717311</v>
+        <v>37.43088983549742</v>
       </c>
       <c r="H21">
-        <v>4.475686519998225</v>
+        <v>4.174842807241304</v>
       </c>
       <c r="I21">
-        <v>3.199666512675416</v>
+        <v>3.074441031967776</v>
       </c>
       <c r="J21">
-        <v>8.737570600462552</v>
+        <v>8.332328521024577</v>
       </c>
       <c r="K21">
-        <v>44.53937207960617</v>
+        <v>30.54805534852195</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>23.88398210220516</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>21.94006401829397</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>45.59606522417745</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17.18876396660166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>39.28251608969192</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>17.45748563469355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.883250476744</v>
+        <v>21.48723352299542</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.776704527019163</v>
+        <v>3.802398122179323</v>
       </c>
       <c r="E22">
-        <v>14.07080309332009</v>
+        <v>11.66721256680869</v>
       </c>
       <c r="F22">
-        <v>24.79803648830826</v>
+        <v>24.89355814758858</v>
       </c>
       <c r="G22">
-        <v>34.60223746520452</v>
+        <v>40.01980824818789</v>
       </c>
       <c r="H22">
-        <v>4.694884271314749</v>
+        <v>4.36619607867968</v>
       </c>
       <c r="I22">
-        <v>3.094836320781613</v>
+        <v>2.991038826328873</v>
       </c>
       <c r="J22">
-        <v>8.953926669574486</v>
+        <v>7.669455833566845</v>
       </c>
       <c r="K22">
-        <v>45.84602100332905</v>
+        <v>31.45507922634074</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>24.80574185509504</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>22.41426598872965</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>47.12043794901403</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17.88199313436144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>40.56308546946431</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>17.9308199788158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.5329726354626</v>
+        <v>21.09910935374416</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.720211616463304</v>
+        <v>3.71309555157154</v>
       </c>
       <c r="E23">
-        <v>13.99600607977649</v>
+        <v>11.6819760444743</v>
       </c>
       <c r="F23">
-        <v>24.30724861232159</v>
+        <v>24.5756114367998</v>
       </c>
       <c r="G23">
-        <v>33.90988582259283</v>
+        <v>38.463390358636</v>
       </c>
       <c r="H23">
-        <v>4.575481914413449</v>
+        <v>4.264011519958364</v>
       </c>
       <c r="I23">
-        <v>3.141877939855114</v>
+        <v>3.023608342003721</v>
       </c>
       <c r="J23">
-        <v>8.842386964469529</v>
+        <v>8.158706405834193</v>
       </c>
       <c r="K23">
-        <v>45.01704934984161</v>
+        <v>30.87393331456204</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>24.24265849438603</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>22.08611396341824</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>46.25387278367126</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17.52147322311058</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>39.8549891074233</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>17.72127108131469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.11968903984645</v>
+        <v>19.56031401798533</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.50024326300856</v>
+        <v>3.412840782687312</v>
       </c>
       <c r="E24">
-        <v>13.7471529050401</v>
+        <v>11.71956850390847</v>
       </c>
       <c r="F24">
-        <v>22.37088472238835</v>
+        <v>23.08570339767553</v>
       </c>
       <c r="G24">
-        <v>31.17613611675751</v>
+        <v>33.43324779476352</v>
       </c>
       <c r="H24">
-        <v>4.122351541853899</v>
+        <v>3.867884805063289</v>
       </c>
       <c r="I24">
-        <v>3.336134829776798</v>
+        <v>3.168139526057096</v>
       </c>
       <c r="J24">
-        <v>8.414173692004736</v>
+        <v>9.296851962841563</v>
       </c>
       <c r="K24">
-        <v>42.00348660430642</v>
+        <v>28.80649125202888</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>22.19066093627663</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>20.96273121968417</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>42.92749375714083</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.09660907452786</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>37.05125636959892</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>16.80318311772771</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.45765535778531</v>
+        <v>17.80164445002201</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.244845713606607</v>
+        <v>3.162235801528906</v>
       </c>
       <c r="E25">
-        <v>13.4561759052254</v>
+        <v>11.6995123539607</v>
       </c>
       <c r="F25">
-        <v>20.24753073467009</v>
+        <v>21.09599206752813</v>
       </c>
       <c r="G25">
-        <v>28.03435905909108</v>
+        <v>29.92998051865734</v>
       </c>
       <c r="H25">
-        <v>3.620894014496489</v>
+        <v>3.413646351593627</v>
       </c>
       <c r="I25">
-        <v>3.550212704969669</v>
+        <v>3.329147476040849</v>
       </c>
       <c r="J25">
-        <v>7.954871413029194</v>
+        <v>8.988083787347085</v>
       </c>
       <c r="K25">
-        <v>38.5625440927971</v>
+        <v>26.54890801315106</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>19.92328505763884</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>19.76291181997064</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>39.03998376429126</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.7108090689898</v>
+        <v>33.62094500993004</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.51177780809316</v>
       </c>
     </row>
   </sheetData>
